--- a/Sucupira/2022/conferencia_programa.xlsx
+++ b/Sucupira/2022/conferencia_programa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52178011-62FD-A64D-BE45-C90AF16C1946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4412E84-8E1B-9246-82C6-D4C875511C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25690" uniqueCount="3425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25888" uniqueCount="3425">
   <si>
     <t>Identificador do PPG</t>
   </si>
@@ -9971,6 +9971,9 @@
     <t>Controle Postural na Saúde e na Doença</t>
   </si>
   <si>
+    <t>Controle motor e intervenções terapêuticas</t>
+  </si>
+  <si>
     <t>Desfechos clínicos e funcionais da Reabilitação Pulmonar nas Pneumopatias Crônicas</t>
   </si>
   <si>
@@ -10002,9 +10005,6 @@
   </si>
   <si>
     <t>Propostas terapêuticas e avaliação clínica em indivíduos com dor musculoesquelética e incapacidades funcionais</t>
-  </si>
-  <si>
-    <t>Técnicas de biofeedback para reeducação postural e muscular</t>
   </si>
   <si>
     <t>Identificador da Pessoa do Membro</t>
@@ -12826,7 +12826,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:U126"/>
+  <dimension ref="A1:U137"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14569,10 +14569,10 @@
         <v>3189</v>
       </c>
       <c r="P27">
-        <v>3058509</v>
+        <v>3962095</v>
       </c>
       <c r="Q27" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="R27" t="s">
         <v>3328</v>
@@ -14634,19 +14634,19 @@
         <v>3189</v>
       </c>
       <c r="P28">
-        <v>190235</v>
+        <v>3962131</v>
       </c>
       <c r="Q28" t="s">
-        <v>117</v>
+        <v>768</v>
       </c>
       <c r="R28" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S28" t="s">
         <v>86</v>
       </c>
       <c r="T28" t="s">
-        <v>3292</v>
+        <v>131</v>
       </c>
       <c r="U28" t="s">
         <v>71</v>
@@ -14699,10 +14699,10 @@
         <v>3189</v>
       </c>
       <c r="P29">
-        <v>4005809</v>
+        <v>3058509</v>
       </c>
       <c r="Q29" t="s">
-        <v>992</v>
+        <v>778</v>
       </c>
       <c r="R29" t="s">
         <v>3328</v>
@@ -14764,10 +14764,10 @@
         <v>3189</v>
       </c>
       <c r="P30">
-        <v>804089</v>
+        <v>190235</v>
       </c>
       <c r="Q30" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="R30" t="s">
         <v>1490</v>
@@ -14829,10 +14829,10 @@
         <v>3189</v>
       </c>
       <c r="P31">
-        <v>4005812</v>
+        <v>4005809</v>
       </c>
       <c r="Q31" t="s">
-        <v>1121</v>
+        <v>992</v>
       </c>
       <c r="R31" t="s">
         <v>3328</v>
@@ -14894,10 +14894,10 @@
         <v>3189</v>
       </c>
       <c r="P32">
-        <v>195412</v>
+        <v>804089</v>
       </c>
       <c r="Q32" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="R32" t="s">
         <v>1490</v>
@@ -14959,19 +14959,19 @@
         <v>3189</v>
       </c>
       <c r="P33">
-        <v>215341</v>
+        <v>4005812</v>
       </c>
       <c r="Q33" t="s">
-        <v>156</v>
+        <v>1121</v>
       </c>
       <c r="R33" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S33" t="s">
         <v>86</v>
       </c>
       <c r="T33" t="s">
-        <v>3292</v>
+        <v>260</v>
       </c>
       <c r="U33" t="s">
         <v>71</v>
@@ -15024,10 +15024,10 @@
         <v>3189</v>
       </c>
       <c r="P34">
-        <v>215558</v>
+        <v>195412</v>
       </c>
       <c r="Q34" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="R34" t="s">
         <v>1490</v>
@@ -15089,19 +15089,19 @@
         <v>3189</v>
       </c>
       <c r="P35">
-        <v>3962105</v>
+        <v>215341</v>
       </c>
       <c r="Q35" t="s">
-        <v>1312</v>
+        <v>156</v>
       </c>
       <c r="R35" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S35" t="s">
         <v>86</v>
       </c>
       <c r="T35" t="s">
-        <v>3331</v>
+        <v>3292</v>
       </c>
       <c r="U35" t="s">
         <v>71</v>
@@ -15154,10 +15154,10 @@
         <v>3189</v>
       </c>
       <c r="P36">
-        <v>206496</v>
+        <v>215558</v>
       </c>
       <c r="Q36" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="R36" t="s">
         <v>1490</v>
@@ -15192,13 +15192,13 @@
         <v>63</v>
       </c>
       <c r="G37">
-        <v>655182</v>
+        <v>648638</v>
       </c>
       <c r="H37" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
       <c r="I37" t="s">
-        <v>2428</v>
+        <v>3292</v>
       </c>
       <c r="J37" t="s">
         <v>3287</v>
@@ -15207,31 +15207,31 @@
         <v>3288</v>
       </c>
       <c r="L37" t="s">
-        <v>2428</v>
+        <v>3292</v>
       </c>
       <c r="M37" t="s">
-        <v>2428</v>
+        <v>3292</v>
       </c>
       <c r="N37" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="O37" t="s">
         <v>3189</v>
       </c>
       <c r="P37">
-        <v>806642</v>
+        <v>3962105</v>
       </c>
       <c r="Q37" t="s">
-        <v>2176</v>
+        <v>1312</v>
       </c>
       <c r="R37" t="s">
-        <v>3332</v>
+        <v>3328</v>
       </c>
       <c r="S37" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T37" t="s">
-        <v>2428</v>
+        <v>3331</v>
       </c>
       <c r="U37" t="s">
         <v>71</v>
@@ -15257,13 +15257,13 @@
         <v>63</v>
       </c>
       <c r="G38">
-        <v>655182</v>
+        <v>648638</v>
       </c>
       <c r="H38" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
       <c r="I38" t="s">
-        <v>2428</v>
+        <v>3292</v>
       </c>
       <c r="J38" t="s">
         <v>3287</v>
@@ -15272,22 +15272,22 @@
         <v>3288</v>
       </c>
       <c r="L38" t="s">
-        <v>2428</v>
+        <v>3292</v>
       </c>
       <c r="M38" t="s">
-        <v>2428</v>
+        <v>3292</v>
       </c>
       <c r="N38" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="O38" t="s">
         <v>3189</v>
       </c>
       <c r="P38">
-        <v>215341</v>
+        <v>206496</v>
       </c>
       <c r="Q38" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="R38" t="s">
         <v>1490</v>
@@ -15296,7 +15296,7 @@
         <v>86</v>
       </c>
       <c r="T38" t="s">
-        <v>2428</v>
+        <v>3292</v>
       </c>
       <c r="U38" t="s">
         <v>71</v>
@@ -15322,13 +15322,13 @@
         <v>63</v>
       </c>
       <c r="G39">
-        <v>647599</v>
+        <v>655182</v>
       </c>
       <c r="H39" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="I39" t="s">
-        <v>404</v>
+        <v>2428</v>
       </c>
       <c r="J39" t="s">
         <v>3287</v>
@@ -15337,31 +15337,31 @@
         <v>3288</v>
       </c>
       <c r="L39" t="s">
-        <v>404</v>
+        <v>2428</v>
       </c>
       <c r="M39" t="s">
-        <v>404</v>
+        <v>2428</v>
       </c>
       <c r="N39" t="s">
-        <v>3289</v>
+        <v>3294</v>
       </c>
       <c r="O39" t="s">
         <v>3189</v>
       </c>
       <c r="P39">
-        <v>150218</v>
+        <v>806642</v>
       </c>
       <c r="Q39" t="s">
-        <v>64</v>
+        <v>2176</v>
       </c>
       <c r="R39" t="s">
-        <v>1490</v>
+        <v>3332</v>
       </c>
       <c r="S39" t="s">
         <v>338</v>
       </c>
       <c r="T39" t="s">
-        <v>404</v>
+        <v>2428</v>
       </c>
       <c r="U39" t="s">
         <v>71</v>
@@ -15387,13 +15387,13 @@
         <v>63</v>
       </c>
       <c r="G40">
-        <v>647599</v>
+        <v>655182</v>
       </c>
       <c r="H40" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="I40" t="s">
-        <v>404</v>
+        <v>2428</v>
       </c>
       <c r="J40" t="s">
         <v>3287</v>
@@ -15402,22 +15402,22 @@
         <v>3288</v>
       </c>
       <c r="L40" t="s">
-        <v>404</v>
+        <v>2428</v>
       </c>
       <c r="M40" t="s">
-        <v>404</v>
+        <v>2428</v>
       </c>
       <c r="N40" t="s">
-        <v>3289</v>
+        <v>3294</v>
       </c>
       <c r="O40" t="s">
         <v>3189</v>
       </c>
       <c r="P40">
-        <v>29528</v>
+        <v>215341</v>
       </c>
       <c r="Q40" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="R40" t="s">
         <v>1490</v>
@@ -15426,7 +15426,7 @@
         <v>86</v>
       </c>
       <c r="T40" t="s">
-        <v>404</v>
+        <v>2428</v>
       </c>
       <c r="U40" t="s">
         <v>71</v>
@@ -15479,16 +15479,16 @@
         <v>3189</v>
       </c>
       <c r="P41">
-        <v>61027</v>
+        <v>150218</v>
       </c>
       <c r="Q41" t="s">
-        <v>449</v>
+        <v>64</v>
       </c>
       <c r="R41" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S41" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T41" t="s">
         <v>404</v>
@@ -15544,10 +15544,10 @@
         <v>3189</v>
       </c>
       <c r="P42">
-        <v>804089</v>
+        <v>29528</v>
       </c>
       <c r="Q42" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="R42" t="s">
         <v>1490</v>
@@ -15609,10 +15609,10 @@
         <v>3189</v>
       </c>
       <c r="P43">
-        <v>2130854</v>
+        <v>61027</v>
       </c>
       <c r="Q43" t="s">
-        <v>1182</v>
+        <v>449</v>
       </c>
       <c r="R43" t="s">
         <v>3328</v>
@@ -15674,19 +15674,19 @@
         <v>3189</v>
       </c>
       <c r="P44">
-        <v>2363683</v>
+        <v>804089</v>
       </c>
       <c r="Q44" t="s">
-        <v>1203</v>
+        <v>139</v>
       </c>
       <c r="R44" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S44" t="s">
         <v>86</v>
       </c>
       <c r="T44" t="s">
-        <v>3333</v>
+        <v>404</v>
       </c>
       <c r="U44" t="s">
         <v>71</v>
@@ -15712,13 +15712,13 @@
         <v>63</v>
       </c>
       <c r="G45">
-        <v>137359</v>
+        <v>647599</v>
       </c>
       <c r="H45" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="I45" t="s">
-        <v>3297</v>
+        <v>404</v>
       </c>
       <c r="J45" t="s">
         <v>3287</v>
@@ -15727,31 +15727,31 @@
         <v>3288</v>
       </c>
       <c r="L45" t="s">
-        <v>3297</v>
+        <v>404</v>
       </c>
       <c r="M45" t="s">
-        <v>3298</v>
+        <v>404</v>
       </c>
       <c r="N45" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="O45" t="s">
         <v>3189</v>
       </c>
       <c r="P45">
-        <v>150218</v>
+        <v>2130854</v>
       </c>
       <c r="Q45" t="s">
-        <v>64</v>
+        <v>1182</v>
       </c>
       <c r="R45" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S45" t="s">
         <v>86</v>
       </c>
       <c r="T45" t="s">
-        <v>3334</v>
+        <v>404</v>
       </c>
       <c r="U45" t="s">
         <v>71</v>
@@ -15777,13 +15777,13 @@
         <v>63</v>
       </c>
       <c r="G46">
-        <v>137359</v>
+        <v>647599</v>
       </c>
       <c r="H46" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="I46" t="s">
-        <v>3297</v>
+        <v>404</v>
       </c>
       <c r="J46" t="s">
         <v>3287</v>
@@ -15792,22 +15792,22 @@
         <v>3288</v>
       </c>
       <c r="L46" t="s">
-        <v>3297</v>
+        <v>404</v>
       </c>
       <c r="M46" t="s">
-        <v>3298</v>
+        <v>404</v>
       </c>
       <c r="N46" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="O46" t="s">
         <v>3189</v>
       </c>
       <c r="P46">
-        <v>3058504</v>
+        <v>2363683</v>
       </c>
       <c r="Q46" t="s">
-        <v>280</v>
+        <v>1203</v>
       </c>
       <c r="R46" t="s">
         <v>3328</v>
@@ -15816,7 +15816,7 @@
         <v>86</v>
       </c>
       <c r="T46" t="s">
-        <v>284</v>
+        <v>3333</v>
       </c>
       <c r="U46" t="s">
         <v>71</v>
@@ -15869,19 +15869,19 @@
         <v>3189</v>
       </c>
       <c r="P47">
-        <v>3058507</v>
+        <v>150218</v>
       </c>
       <c r="Q47" t="s">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="R47" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S47" t="s">
         <v>86</v>
       </c>
       <c r="T47" t="s">
-        <v>284</v>
+        <v>3334</v>
       </c>
       <c r="U47" t="s">
         <v>71</v>
@@ -15934,19 +15934,19 @@
         <v>3189</v>
       </c>
       <c r="P48">
-        <v>29528</v>
+        <v>3058504</v>
       </c>
       <c r="Q48" t="s">
-        <v>87</v>
+        <v>280</v>
       </c>
       <c r="R48" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S48" t="s">
         <v>86</v>
       </c>
       <c r="T48" t="s">
-        <v>3335</v>
+        <v>284</v>
       </c>
       <c r="U48" t="s">
         <v>71</v>
@@ -15999,10 +15999,10 @@
         <v>3189</v>
       </c>
       <c r="P49">
-        <v>3058514</v>
+        <v>3058507</v>
       </c>
       <c r="Q49" t="s">
-        <v>546</v>
+        <v>297</v>
       </c>
       <c r="R49" t="s">
         <v>3328</v>
@@ -16064,19 +16064,19 @@
         <v>3189</v>
       </c>
       <c r="P50">
-        <v>212694</v>
+        <v>29528</v>
       </c>
       <c r="Q50" t="s">
-        <v>2644</v>
+        <v>87</v>
       </c>
       <c r="R50" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="S50" t="s">
         <v>86</v>
       </c>
       <c r="T50" t="s">
-        <v>284</v>
+        <v>3335</v>
       </c>
       <c r="U50" t="s">
         <v>71</v>
@@ -16129,10 +16129,10 @@
         <v>3189</v>
       </c>
       <c r="P51">
-        <v>3058498</v>
+        <v>3058514</v>
       </c>
       <c r="Q51" t="s">
-        <v>646</v>
+        <v>546</v>
       </c>
       <c r="R51" t="s">
         <v>3328</v>
@@ -16194,19 +16194,19 @@
         <v>3189</v>
       </c>
       <c r="P52">
-        <v>3894288</v>
+        <v>212694</v>
       </c>
       <c r="Q52" t="s">
-        <v>678</v>
+        <v>2644</v>
       </c>
       <c r="R52" t="s">
-        <v>3328</v>
+        <v>1493</v>
       </c>
       <c r="S52" t="s">
         <v>86</v>
       </c>
       <c r="T52" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="U52" t="s">
         <v>71</v>
@@ -16259,10 +16259,10 @@
         <v>3189</v>
       </c>
       <c r="P53">
-        <v>3058497</v>
+        <v>3058498</v>
       </c>
       <c r="Q53" t="s">
-        <v>717</v>
+        <v>646</v>
       </c>
       <c r="R53" t="s">
         <v>3328</v>
@@ -16324,10 +16324,10 @@
         <v>3189</v>
       </c>
       <c r="P54">
-        <v>3058499</v>
+        <v>3894288</v>
       </c>
       <c r="Q54" t="s">
-        <v>743</v>
+        <v>678</v>
       </c>
       <c r="R54" t="s">
         <v>3328</v>
@@ -16336,7 +16336,7 @@
         <v>86</v>
       </c>
       <c r="T54" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="U54" t="s">
         <v>71</v>
@@ -16389,10 +16389,10 @@
         <v>3189</v>
       </c>
       <c r="P55">
-        <v>3058506</v>
+        <v>3058497</v>
       </c>
       <c r="Q55" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
       <c r="R55" t="s">
         <v>3328</v>
@@ -16454,10 +16454,10 @@
         <v>3189</v>
       </c>
       <c r="P56">
-        <v>3058509</v>
+        <v>3058499</v>
       </c>
       <c r="Q56" t="s">
-        <v>778</v>
+        <v>743</v>
       </c>
       <c r="R56" t="s">
         <v>3328</v>
@@ -16519,10 +16519,10 @@
         <v>3189</v>
       </c>
       <c r="P57">
-        <v>4006782</v>
+        <v>3058506</v>
       </c>
       <c r="Q57" t="s">
-        <v>1002</v>
+        <v>748</v>
       </c>
       <c r="R57" t="s">
         <v>3328</v>
@@ -16531,7 +16531,7 @@
         <v>86</v>
       </c>
       <c r="T57" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="U57" t="s">
         <v>71</v>
@@ -16584,10 +16584,10 @@
         <v>3189</v>
       </c>
       <c r="P58">
-        <v>1247084</v>
+        <v>3058509</v>
       </c>
       <c r="Q58" t="s">
-        <v>1150</v>
+        <v>778</v>
       </c>
       <c r="R58" t="s">
         <v>3328</v>
@@ -16649,19 +16649,19 @@
         <v>3189</v>
       </c>
       <c r="P59">
-        <v>211112</v>
+        <v>4006782</v>
       </c>
       <c r="Q59" t="s">
-        <v>2932</v>
+        <v>1002</v>
       </c>
       <c r="R59" t="s">
-        <v>1493</v>
+        <v>3328</v>
       </c>
       <c r="S59" t="s">
         <v>86</v>
       </c>
       <c r="T59" t="s">
-        <v>3336</v>
+        <v>260</v>
       </c>
       <c r="U59" t="s">
         <v>71</v>
@@ -16714,19 +16714,19 @@
         <v>3189</v>
       </c>
       <c r="P60">
-        <v>215341</v>
+        <v>1247084</v>
       </c>
       <c r="Q60" t="s">
-        <v>156</v>
+        <v>1150</v>
       </c>
       <c r="R60" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S60" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T60" t="s">
-        <v>3297</v>
+        <v>284</v>
       </c>
       <c r="U60" t="s">
         <v>71</v>
@@ -16779,19 +16779,19 @@
         <v>3189</v>
       </c>
       <c r="P61">
-        <v>4006783</v>
+        <v>211112</v>
       </c>
       <c r="Q61" t="s">
-        <v>1288</v>
+        <v>2932</v>
       </c>
       <c r="R61" t="s">
-        <v>3328</v>
+        <v>1493</v>
       </c>
       <c r="S61" t="s">
         <v>86</v>
       </c>
       <c r="T61" t="s">
-        <v>260</v>
+        <v>3336</v>
       </c>
       <c r="U61" t="s">
         <v>71</v>
@@ -16844,19 +16844,19 @@
         <v>3189</v>
       </c>
       <c r="P62">
-        <v>3058508</v>
+        <v>215341</v>
       </c>
       <c r="Q62" t="s">
-        <v>1307</v>
+        <v>156</v>
       </c>
       <c r="R62" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S62" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T62" t="s">
-        <v>284</v>
+        <v>3297</v>
       </c>
       <c r="U62" t="s">
         <v>71</v>
@@ -16909,10 +16909,10 @@
         <v>3189</v>
       </c>
       <c r="P63">
-        <v>3058510</v>
+        <v>4006783</v>
       </c>
       <c r="Q63" t="s">
-        <v>1368</v>
+        <v>1288</v>
       </c>
       <c r="R63" t="s">
         <v>3328</v>
@@ -16921,7 +16921,7 @@
         <v>86</v>
       </c>
       <c r="T63" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="U63" t="s">
         <v>71</v>
@@ -16974,19 +16974,19 @@
         <v>3189</v>
       </c>
       <c r="P64">
-        <v>206496</v>
+        <v>3058508</v>
       </c>
       <c r="Q64" t="s">
-        <v>175</v>
+        <v>1307</v>
       </c>
       <c r="R64" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S64" t="s">
         <v>86</v>
       </c>
       <c r="T64" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="U64" t="s">
         <v>71</v>
@@ -17012,13 +17012,13 @@
         <v>63</v>
       </c>
       <c r="G65">
-        <v>655963</v>
+        <v>137359</v>
       </c>
       <c r="H65" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="I65" t="s">
-        <v>131</v>
+        <v>3297</v>
       </c>
       <c r="J65" t="s">
         <v>3287</v>
@@ -17027,31 +17027,31 @@
         <v>3288</v>
       </c>
       <c r="L65" t="s">
-        <v>131</v>
+        <v>3297</v>
       </c>
       <c r="M65" t="s">
-        <v>131</v>
+        <v>3298</v>
       </c>
       <c r="N65" t="s">
-        <v>3300</v>
+        <v>3294</v>
       </c>
       <c r="O65" t="s">
         <v>3189</v>
       </c>
       <c r="P65">
-        <v>29528</v>
+        <v>3058510</v>
       </c>
       <c r="Q65" t="s">
-        <v>87</v>
+        <v>1368</v>
       </c>
       <c r="R65" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S65" t="s">
         <v>86</v>
       </c>
       <c r="T65" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="U65" t="s">
         <v>71</v>
@@ -17077,13 +17077,13 @@
         <v>63</v>
       </c>
       <c r="G66">
-        <v>655963</v>
+        <v>137359</v>
       </c>
       <c r="H66" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="I66" t="s">
-        <v>131</v>
+        <v>3297</v>
       </c>
       <c r="J66" t="s">
         <v>3287</v>
@@ -17092,22 +17092,22 @@
         <v>3288</v>
       </c>
       <c r="L66" t="s">
-        <v>131</v>
+        <v>3297</v>
       </c>
       <c r="M66" t="s">
-        <v>131</v>
+        <v>3298</v>
       </c>
       <c r="N66" t="s">
-        <v>3300</v>
+        <v>3294</v>
       </c>
       <c r="O66" t="s">
         <v>3189</v>
       </c>
       <c r="P66">
-        <v>190235</v>
+        <v>206496</v>
       </c>
       <c r="Q66" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="R66" t="s">
         <v>1490</v>
@@ -17116,7 +17116,7 @@
         <v>86</v>
       </c>
       <c r="T66" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="U66" t="s">
         <v>71</v>
@@ -17169,16 +17169,16 @@
         <v>3189</v>
       </c>
       <c r="P67">
-        <v>1094499</v>
+        <v>29528</v>
       </c>
       <c r="Q67" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="R67" t="s">
         <v>1490</v>
       </c>
       <c r="S67" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T67" t="s">
         <v>131</v>
@@ -17234,10 +17234,10 @@
         <v>3189</v>
       </c>
       <c r="P68">
-        <v>195412</v>
+        <v>190235</v>
       </c>
       <c r="Q68" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="R68" t="s">
         <v>1490</v>
@@ -17299,16 +17299,16 @@
         <v>3189</v>
       </c>
       <c r="P69">
-        <v>215558</v>
+        <v>1094499</v>
       </c>
       <c r="Q69" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="R69" t="s">
         <v>1490</v>
       </c>
       <c r="S69" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T69" t="s">
         <v>131</v>
@@ -17337,13 +17337,13 @@
         <v>63</v>
       </c>
       <c r="G70">
-        <v>454142</v>
+        <v>655963</v>
       </c>
       <c r="H70" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="I70" t="s">
-        <v>3302</v>
+        <v>131</v>
       </c>
       <c r="J70" t="s">
         <v>3287</v>
@@ -17352,31 +17352,31 @@
         <v>3288</v>
       </c>
       <c r="L70" t="s">
-        <v>3302</v>
+        <v>131</v>
       </c>
       <c r="M70" t="s">
-        <v>3302</v>
+        <v>131</v>
       </c>
       <c r="N70" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O70" t="s">
         <v>3189</v>
       </c>
       <c r="P70">
-        <v>197829</v>
+        <v>195412</v>
       </c>
       <c r="Q70" t="s">
-        <v>2663</v>
+        <v>147</v>
       </c>
       <c r="R70" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="S70" t="s">
         <v>86</v>
       </c>
       <c r="T70" t="s">
-        <v>3302</v>
+        <v>131</v>
       </c>
       <c r="U70" t="s">
         <v>71</v>
@@ -17402,13 +17402,13 @@
         <v>63</v>
       </c>
       <c r="G71">
-        <v>454142</v>
+        <v>655963</v>
       </c>
       <c r="H71" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="I71" t="s">
-        <v>3302</v>
+        <v>131</v>
       </c>
       <c r="J71" t="s">
         <v>3287</v>
@@ -17417,31 +17417,31 @@
         <v>3288</v>
       </c>
       <c r="L71" t="s">
-        <v>3302</v>
+        <v>131</v>
       </c>
       <c r="M71" t="s">
-        <v>3302</v>
+        <v>131</v>
       </c>
       <c r="N71" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O71" t="s">
         <v>3189</v>
       </c>
       <c r="P71">
-        <v>190235</v>
+        <v>215558</v>
       </c>
       <c r="Q71" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="R71" t="s">
         <v>1490</v>
       </c>
       <c r="S71" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T71" t="s">
-        <v>3302</v>
+        <v>131</v>
       </c>
       <c r="U71" t="s">
         <v>71</v>
@@ -17494,13 +17494,13 @@
         <v>3189</v>
       </c>
       <c r="P72">
-        <v>195412</v>
+        <v>197829</v>
       </c>
       <c r="Q72" t="s">
-        <v>147</v>
+        <v>2663</v>
       </c>
       <c r="R72" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="S72" t="s">
         <v>86</v>
@@ -17532,13 +17532,13 @@
         <v>63</v>
       </c>
       <c r="G73">
-        <v>537143</v>
+        <v>454142</v>
       </c>
       <c r="H73" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="I73" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="J73" t="s">
         <v>3287</v>
@@ -17547,31 +17547,31 @@
         <v>3288</v>
       </c>
       <c r="L73" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="M73" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="N73" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="O73" t="s">
         <v>3189</v>
       </c>
       <c r="P73">
-        <v>29528</v>
+        <v>190235</v>
       </c>
       <c r="Q73" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="R73" t="s">
         <v>1490</v>
       </c>
       <c r="S73" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T73" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="U73" t="s">
         <v>71</v>
@@ -17597,13 +17597,13 @@
         <v>63</v>
       </c>
       <c r="G74">
-        <v>537143</v>
+        <v>454142</v>
       </c>
       <c r="H74" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="I74" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="J74" t="s">
         <v>3287</v>
@@ -17612,31 +17612,31 @@
         <v>3288</v>
       </c>
       <c r="L74" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="M74" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="N74" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="O74" t="s">
         <v>3189</v>
       </c>
       <c r="P74">
-        <v>3458591</v>
+        <v>195412</v>
       </c>
       <c r="Q74" t="s">
-        <v>657</v>
+        <v>147</v>
       </c>
       <c r="R74" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S74" t="s">
         <v>86</v>
       </c>
       <c r="T74" t="s">
-        <v>661</v>
+        <v>3302</v>
       </c>
       <c r="U74" t="s">
         <v>71</v>
@@ -17689,16 +17689,16 @@
         <v>3189</v>
       </c>
       <c r="P75">
-        <v>30593</v>
+        <v>29528</v>
       </c>
       <c r="Q75" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="R75" t="s">
         <v>1490</v>
       </c>
       <c r="S75" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T75" t="s">
         <v>111</v>
@@ -17727,10 +17727,10 @@
         <v>63</v>
       </c>
       <c r="G76">
-        <v>537090</v>
+        <v>537143</v>
       </c>
       <c r="H76" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="I76" t="s">
         <v>111</v>
@@ -17748,25 +17748,25 @@
         <v>111</v>
       </c>
       <c r="N76" t="s">
-        <v>3300</v>
+        <v>3294</v>
       </c>
       <c r="O76" t="s">
         <v>3189</v>
       </c>
       <c r="P76">
-        <v>150218</v>
+        <v>3458591</v>
       </c>
       <c r="Q76" t="s">
-        <v>64</v>
+        <v>657</v>
       </c>
       <c r="R76" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S76" t="s">
         <v>86</v>
       </c>
       <c r="T76" t="s">
-        <v>111</v>
+        <v>661</v>
       </c>
       <c r="U76" t="s">
         <v>71</v>
@@ -17792,10 +17792,10 @@
         <v>63</v>
       </c>
       <c r="G77">
-        <v>537090</v>
+        <v>537143</v>
       </c>
       <c r="H77" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="I77" t="s">
         <v>111</v>
@@ -17813,7 +17813,7 @@
         <v>111</v>
       </c>
       <c r="N77" t="s">
-        <v>3300</v>
+        <v>3294</v>
       </c>
       <c r="O77" t="s">
         <v>3189</v>
@@ -17857,13 +17857,13 @@
         <v>63</v>
       </c>
       <c r="G78">
-        <v>489776</v>
+        <v>537090</v>
       </c>
       <c r="H78" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="I78" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="J78" t="s">
         <v>3287</v>
@@ -17872,31 +17872,31 @@
         <v>3288</v>
       </c>
       <c r="L78" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="M78" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="N78" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O78" t="s">
         <v>3189</v>
       </c>
       <c r="P78">
-        <v>215341</v>
+        <v>150218</v>
       </c>
       <c r="Q78" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="R78" t="s">
         <v>1490</v>
       </c>
       <c r="S78" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T78" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="U78" t="s">
         <v>71</v>
@@ -17922,13 +17922,13 @@
         <v>63</v>
       </c>
       <c r="G79">
-        <v>489613</v>
+        <v>537090</v>
       </c>
       <c r="H79" t="s">
-        <v>3309</v>
+        <v>3304</v>
       </c>
       <c r="I79" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="J79" t="s">
         <v>3287</v>
@@ -17937,31 +17937,31 @@
         <v>3288</v>
       </c>
       <c r="L79" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="M79" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="N79" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O79" t="s">
         <v>3189</v>
       </c>
       <c r="P79">
-        <v>29528</v>
+        <v>30593</v>
       </c>
       <c r="Q79" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="R79" t="s">
         <v>1490</v>
       </c>
       <c r="S79" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T79" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="U79" t="s">
         <v>71</v>
@@ -17987,13 +17987,13 @@
         <v>63</v>
       </c>
       <c r="G80">
-        <v>489613</v>
+        <v>489776</v>
       </c>
       <c r="H80" t="s">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="I80" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="J80" t="s">
         <v>3287</v>
@@ -18002,10 +18002,10 @@
         <v>3288</v>
       </c>
       <c r="L80" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="M80" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="N80" t="s">
         <v>3289</v>
@@ -18014,19 +18014,19 @@
         <v>3189</v>
       </c>
       <c r="P80">
-        <v>3458587</v>
+        <v>215341</v>
       </c>
       <c r="Q80" t="s">
-        <v>620</v>
+        <v>156</v>
       </c>
       <c r="R80" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S80" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T80" t="s">
-        <v>278</v>
+        <v>3302</v>
       </c>
       <c r="U80" t="s">
         <v>71</v>
@@ -18079,19 +18079,19 @@
         <v>3189</v>
       </c>
       <c r="P81">
-        <v>188295</v>
+        <v>29528</v>
       </c>
       <c r="Q81" t="s">
-        <v>2810</v>
+        <v>87</v>
       </c>
       <c r="R81" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="S81" t="s">
         <v>86</v>
       </c>
       <c r="T81" t="s">
-        <v>3337</v>
+        <v>470</v>
       </c>
       <c r="U81" t="s">
         <v>71</v>
@@ -18144,19 +18144,19 @@
         <v>3189</v>
       </c>
       <c r="P82">
-        <v>206496</v>
+        <v>3458587</v>
       </c>
       <c r="Q82" t="s">
-        <v>175</v>
+        <v>620</v>
       </c>
       <c r="R82" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S82" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T82" t="s">
-        <v>470</v>
+        <v>278</v>
       </c>
       <c r="U82" t="s">
         <v>71</v>
@@ -18182,13 +18182,13 @@
         <v>63</v>
       </c>
       <c r="G83">
-        <v>537550</v>
+        <v>489613</v>
       </c>
       <c r="H83" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="J83" t="s">
         <v>3287</v>
@@ -18197,31 +18197,31 @@
         <v>3288</v>
       </c>
       <c r="L83" t="s">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="M83" t="s">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="N83" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O83" t="s">
         <v>3189</v>
       </c>
       <c r="P83">
-        <v>150218</v>
+        <v>188295</v>
       </c>
       <c r="Q83" t="s">
-        <v>64</v>
+        <v>2810</v>
       </c>
       <c r="R83" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="S83" t="s">
         <v>86</v>
       </c>
       <c r="T83" t="s">
-        <v>111</v>
+        <v>3337</v>
       </c>
       <c r="U83" t="s">
         <v>71</v>
@@ -18247,13 +18247,13 @@
         <v>63</v>
       </c>
       <c r="G84">
-        <v>537550</v>
+        <v>489613</v>
       </c>
       <c r="H84" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="I84" t="s">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="J84" t="s">
         <v>3287</v>
@@ -18262,22 +18262,22 @@
         <v>3288</v>
       </c>
       <c r="L84" t="s">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="M84" t="s">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="N84" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O84" t="s">
         <v>3189</v>
       </c>
       <c r="P84">
-        <v>804089</v>
+        <v>206496</v>
       </c>
       <c r="Q84" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="R84" t="s">
         <v>1490</v>
@@ -18286,7 +18286,7 @@
         <v>338</v>
       </c>
       <c r="T84" t="s">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="U84" t="s">
         <v>71</v>
@@ -18312,13 +18312,13 @@
         <v>63</v>
       </c>
       <c r="G85">
-        <v>454118</v>
+        <v>614502</v>
       </c>
       <c r="H85" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="I85" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="J85" t="s">
         <v>3287</v>
@@ -18327,10 +18327,10 @@
         <v>3288</v>
       </c>
       <c r="L85" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="M85" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="N85" t="s">
         <v>3300</v>
@@ -18339,19 +18339,19 @@
         <v>3189</v>
       </c>
       <c r="P85">
-        <v>197829</v>
+        <v>3456893</v>
       </c>
       <c r="Q85" t="s">
-        <v>2663</v>
+        <v>262</v>
       </c>
       <c r="R85" t="s">
-        <v>1493</v>
+        <v>3328</v>
       </c>
       <c r="S85" t="s">
         <v>86</v>
       </c>
       <c r="T85" t="s">
-        <v>3302</v>
+        <v>260</v>
       </c>
       <c r="U85" t="s">
         <v>71</v>
@@ -18377,13 +18377,13 @@
         <v>63</v>
       </c>
       <c r="G86">
-        <v>454118</v>
+        <v>614502</v>
       </c>
       <c r="H86" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="I86" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="J86" t="s">
         <v>3287</v>
@@ -18392,10 +18392,10 @@
         <v>3288</v>
       </c>
       <c r="L86" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="M86" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="N86" t="s">
         <v>3300</v>
@@ -18404,19 +18404,19 @@
         <v>3189</v>
       </c>
       <c r="P86">
-        <v>190235</v>
+        <v>29528</v>
       </c>
       <c r="Q86" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="R86" t="s">
         <v>1490</v>
       </c>
       <c r="S86" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T86" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="U86" t="s">
         <v>71</v>
@@ -18442,13 +18442,13 @@
         <v>63</v>
       </c>
       <c r="G87">
-        <v>454118</v>
+        <v>614502</v>
       </c>
       <c r="H87" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="I87" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="J87" t="s">
         <v>3287</v>
@@ -18457,10 +18457,10 @@
         <v>3288</v>
       </c>
       <c r="L87" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="M87" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="N87" t="s">
         <v>3300</v>
@@ -18469,19 +18469,19 @@
         <v>3189</v>
       </c>
       <c r="P87">
-        <v>195412</v>
+        <v>3788079</v>
       </c>
       <c r="Q87" t="s">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="R87" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S87" t="s">
         <v>86</v>
       </c>
       <c r="T87" t="s">
-        <v>3302</v>
+        <v>260</v>
       </c>
       <c r="U87" t="s">
         <v>71</v>
@@ -18507,13 +18507,13 @@
         <v>63</v>
       </c>
       <c r="G88">
-        <v>489769</v>
+        <v>614502</v>
       </c>
       <c r="H88" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="I88" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="J88" t="s">
         <v>3287</v>
@@ -18522,10 +18522,10 @@
         <v>3288</v>
       </c>
       <c r="L88" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="M88" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="N88" t="s">
         <v>3300</v>
@@ -18534,19 +18534,19 @@
         <v>3189</v>
       </c>
       <c r="P88">
-        <v>197829</v>
+        <v>3889869</v>
       </c>
       <c r="Q88" t="s">
-        <v>2663</v>
+        <v>495</v>
       </c>
       <c r="R88" t="s">
-        <v>1493</v>
+        <v>3328</v>
       </c>
       <c r="S88" t="s">
         <v>86</v>
       </c>
       <c r="T88" t="s">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="U88" t="s">
         <v>71</v>
@@ -18572,13 +18572,13 @@
         <v>63</v>
       </c>
       <c r="G89">
-        <v>489769</v>
+        <v>614502</v>
       </c>
       <c r="H89" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="I89" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="J89" t="s">
         <v>3287</v>
@@ -18587,10 +18587,10 @@
         <v>3288</v>
       </c>
       <c r="L89" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="M89" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="N89" t="s">
         <v>3300</v>
@@ -18599,19 +18599,19 @@
         <v>3189</v>
       </c>
       <c r="P89">
-        <v>190235</v>
+        <v>237618</v>
       </c>
       <c r="Q89" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="R89" t="s">
         <v>1490</v>
       </c>
       <c r="S89" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T89" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="U89" t="s">
         <v>71</v>
@@ -18637,13 +18637,13 @@
         <v>63</v>
       </c>
       <c r="G90">
-        <v>489769</v>
+        <v>614502</v>
       </c>
       <c r="H90" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="I90" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="J90" t="s">
         <v>3287</v>
@@ -18652,10 +18652,10 @@
         <v>3288</v>
       </c>
       <c r="L90" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="M90" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="N90" t="s">
         <v>3300</v>
@@ -18664,19 +18664,19 @@
         <v>3189</v>
       </c>
       <c r="P90">
-        <v>533043</v>
+        <v>3661879</v>
       </c>
       <c r="Q90" t="s">
-        <v>2866</v>
+        <v>901</v>
       </c>
       <c r="R90" t="s">
-        <v>1493</v>
+        <v>3328</v>
       </c>
       <c r="S90" t="s">
         <v>86</v>
       </c>
       <c r="T90" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="U90" t="s">
         <v>71</v>
@@ -18702,13 +18702,13 @@
         <v>63</v>
       </c>
       <c r="G91">
-        <v>489769</v>
+        <v>614502</v>
       </c>
       <c r="H91" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="I91" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="J91" t="s">
         <v>3287</v>
@@ -18717,10 +18717,10 @@
         <v>3288</v>
       </c>
       <c r="L91" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="M91" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="N91" t="s">
         <v>3300</v>
@@ -18729,19 +18729,19 @@
         <v>3189</v>
       </c>
       <c r="P91">
-        <v>195412</v>
+        <v>2542443</v>
       </c>
       <c r="Q91" t="s">
-        <v>147</v>
+        <v>911</v>
       </c>
       <c r="R91" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S91" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T91" t="s">
-        <v>470</v>
+        <v>131</v>
       </c>
       <c r="U91" t="s">
         <v>71</v>
@@ -18767,13 +18767,13 @@
         <v>63</v>
       </c>
       <c r="G92">
-        <v>647625</v>
+        <v>614502</v>
       </c>
       <c r="H92" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="I92" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="J92" t="s">
         <v>3287</v>
@@ -18782,10 +18782,10 @@
         <v>3288</v>
       </c>
       <c r="L92" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="M92" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="N92" t="s">
         <v>3300</v>
@@ -18794,19 +18794,19 @@
         <v>3189</v>
       </c>
       <c r="P92">
-        <v>150218</v>
+        <v>3961905</v>
       </c>
       <c r="Q92" t="s">
-        <v>64</v>
+        <v>942</v>
       </c>
       <c r="R92" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S92" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T92" t="s">
-        <v>1506</v>
+        <v>131</v>
       </c>
       <c r="U92" t="s">
         <v>71</v>
@@ -18832,13 +18832,13 @@
         <v>63</v>
       </c>
       <c r="G93">
-        <v>647625</v>
+        <v>614502</v>
       </c>
       <c r="H93" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="I93" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="J93" t="s">
         <v>3287</v>
@@ -18847,10 +18847,10 @@
         <v>3288</v>
       </c>
       <c r="L93" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="M93" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="N93" t="s">
         <v>3300</v>
@@ -18859,19 +18859,19 @@
         <v>3189</v>
       </c>
       <c r="P93">
-        <v>29528</v>
+        <v>3896291</v>
       </c>
       <c r="Q93" t="s">
-        <v>87</v>
+        <v>1039</v>
       </c>
       <c r="R93" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S93" t="s">
         <v>86</v>
       </c>
       <c r="T93" t="s">
-        <v>1506</v>
+        <v>260</v>
       </c>
       <c r="U93" t="s">
         <v>71</v>
@@ -18897,13 +18897,13 @@
         <v>63</v>
       </c>
       <c r="G94">
-        <v>647625</v>
+        <v>614502</v>
       </c>
       <c r="H94" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="I94" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="J94" t="s">
         <v>3287</v>
@@ -18912,10 +18912,10 @@
         <v>3288</v>
       </c>
       <c r="L94" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="M94" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="N94" t="s">
         <v>3300</v>
@@ -18924,10 +18924,10 @@
         <v>3189</v>
       </c>
       <c r="P94">
-        <v>61027</v>
+        <v>3962092</v>
       </c>
       <c r="Q94" t="s">
-        <v>449</v>
+        <v>1082</v>
       </c>
       <c r="R94" t="s">
         <v>3328</v>
@@ -18936,7 +18936,7 @@
         <v>86</v>
       </c>
       <c r="T94" t="s">
-        <v>1506</v>
+        <v>260</v>
       </c>
       <c r="U94" t="s">
         <v>71</v>
@@ -18962,13 +18962,13 @@
         <v>63</v>
       </c>
       <c r="G95">
-        <v>647625</v>
+        <v>614502</v>
       </c>
       <c r="H95" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="I95" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="J95" t="s">
         <v>3287</v>
@@ -18977,10 +18977,10 @@
         <v>3288</v>
       </c>
       <c r="L95" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="M95" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="N95" t="s">
         <v>3300</v>
@@ -18989,19 +18989,19 @@
         <v>3189</v>
       </c>
       <c r="P95">
-        <v>1008071</v>
+        <v>218364</v>
       </c>
       <c r="Q95" t="s">
-        <v>830</v>
+        <v>1492</v>
       </c>
       <c r="R95" t="s">
-        <v>3328</v>
+        <v>1493</v>
       </c>
       <c r="S95" t="s">
         <v>86</v>
       </c>
       <c r="T95" t="s">
-        <v>1506</v>
+        <v>260</v>
       </c>
       <c r="U95" t="s">
         <v>71</v>
@@ -19027,13 +19027,13 @@
         <v>63</v>
       </c>
       <c r="G96">
-        <v>647625</v>
+        <v>614502</v>
       </c>
       <c r="H96" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="I96" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="J96" t="s">
         <v>3287</v>
@@ -19042,10 +19042,10 @@
         <v>3288</v>
       </c>
       <c r="L96" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="M96" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="N96" t="s">
         <v>3300</v>
@@ -19054,10 +19054,10 @@
         <v>3189</v>
       </c>
       <c r="P96">
-        <v>420166</v>
+        <v>3962108</v>
       </c>
       <c r="Q96" t="s">
-        <v>952</v>
+        <v>1373</v>
       </c>
       <c r="R96" t="s">
         <v>3328</v>
@@ -19066,7 +19066,7 @@
         <v>86</v>
       </c>
       <c r="T96" t="s">
-        <v>1506</v>
+        <v>260</v>
       </c>
       <c r="U96" t="s">
         <v>71</v>
@@ -19092,13 +19092,13 @@
         <v>63</v>
       </c>
       <c r="G97">
-        <v>647625</v>
+        <v>614502</v>
       </c>
       <c r="H97" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="I97" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="J97" t="s">
         <v>3287</v>
@@ -19107,10 +19107,10 @@
         <v>3288</v>
       </c>
       <c r="L97" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="M97" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="N97" t="s">
         <v>3300</v>
@@ -19119,10 +19119,10 @@
         <v>3189</v>
       </c>
       <c r="P97">
-        <v>804089</v>
+        <v>206496</v>
       </c>
       <c r="Q97" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="R97" t="s">
         <v>1490</v>
@@ -19131,7 +19131,7 @@
         <v>86</v>
       </c>
       <c r="T97" t="s">
-        <v>1506</v>
+        <v>100</v>
       </c>
       <c r="U97" t="s">
         <v>71</v>
@@ -19157,13 +19157,13 @@
         <v>63</v>
       </c>
       <c r="G98">
-        <v>647766</v>
+        <v>537550</v>
       </c>
       <c r="H98" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="I98" t="s">
-        <v>2447</v>
+        <v>111</v>
       </c>
       <c r="J98" t="s">
         <v>3287</v>
@@ -19172,10 +19172,10 @@
         <v>3288</v>
       </c>
       <c r="L98" t="s">
-        <v>2447</v>
+        <v>111</v>
       </c>
       <c r="M98" t="s">
-        <v>2447</v>
+        <v>111</v>
       </c>
       <c r="N98" t="s">
         <v>3300</v>
@@ -19184,10 +19184,10 @@
         <v>3189</v>
       </c>
       <c r="P98">
-        <v>215341</v>
+        <v>150218</v>
       </c>
       <c r="Q98" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="R98" t="s">
         <v>1490</v>
@@ -19196,7 +19196,7 @@
         <v>86</v>
       </c>
       <c r="T98" t="s">
-        <v>2447</v>
+        <v>111</v>
       </c>
       <c r="U98" t="s">
         <v>71</v>
@@ -19222,13 +19222,13 @@
         <v>63</v>
       </c>
       <c r="G99">
-        <v>647766</v>
+        <v>537550</v>
       </c>
       <c r="H99" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="I99" t="s">
-        <v>2447</v>
+        <v>111</v>
       </c>
       <c r="J99" t="s">
         <v>3287</v>
@@ -19237,10 +19237,10 @@
         <v>3288</v>
       </c>
       <c r="L99" t="s">
-        <v>2447</v>
+        <v>111</v>
       </c>
       <c r="M99" t="s">
-        <v>2447</v>
+        <v>111</v>
       </c>
       <c r="N99" t="s">
         <v>3300</v>
@@ -19249,19 +19249,19 @@
         <v>3189</v>
       </c>
       <c r="P99">
-        <v>3895167</v>
+        <v>804089</v>
       </c>
       <c r="Q99" t="s">
-        <v>2442</v>
+        <v>139</v>
       </c>
       <c r="R99" t="s">
-        <v>3332</v>
+        <v>1490</v>
       </c>
       <c r="S99" t="s">
         <v>338</v>
       </c>
       <c r="T99" t="s">
-        <v>2447</v>
+        <v>111</v>
       </c>
       <c r="U99" t="s">
         <v>71</v>
@@ -19287,13 +19287,13 @@
         <v>63</v>
       </c>
       <c r="G100">
-        <v>537549</v>
+        <v>454118</v>
       </c>
       <c r="H100" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="I100" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="J100" t="s">
         <v>3287</v>
@@ -19302,31 +19302,31 @@
         <v>3288</v>
       </c>
       <c r="L100" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="M100" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="N100" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O100" t="s">
         <v>3189</v>
       </c>
       <c r="P100">
-        <v>150218</v>
+        <v>197829</v>
       </c>
       <c r="Q100" t="s">
-        <v>64</v>
+        <v>2663</v>
       </c>
       <c r="R100" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="S100" t="s">
         <v>86</v>
       </c>
       <c r="T100" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="U100" t="s">
         <v>71</v>
@@ -19352,13 +19352,13 @@
         <v>63</v>
       </c>
       <c r="G101">
-        <v>537549</v>
+        <v>454118</v>
       </c>
       <c r="H101" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="I101" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="J101" t="s">
         <v>3287</v>
@@ -19367,22 +19367,22 @@
         <v>3288</v>
       </c>
       <c r="L101" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="M101" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="N101" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O101" t="s">
         <v>3189</v>
       </c>
       <c r="P101">
-        <v>804089</v>
+        <v>190235</v>
       </c>
       <c r="Q101" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="R101" t="s">
         <v>1490</v>
@@ -19391,7 +19391,7 @@
         <v>338</v>
       </c>
       <c r="T101" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="U101" t="s">
         <v>71</v>
@@ -19417,13 +19417,13 @@
         <v>63</v>
       </c>
       <c r="G102">
-        <v>647741</v>
+        <v>454118</v>
       </c>
       <c r="H102" t="s">
-        <v>3316</v>
+        <v>3312</v>
       </c>
       <c r="I102" t="s">
-        <v>2447</v>
+        <v>3302</v>
       </c>
       <c r="J102" t="s">
         <v>3287</v>
@@ -19432,22 +19432,22 @@
         <v>3288</v>
       </c>
       <c r="L102" t="s">
-        <v>2447</v>
+        <v>3302</v>
       </c>
       <c r="M102" t="s">
-        <v>2447</v>
+        <v>3302</v>
       </c>
       <c r="N102" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O102" t="s">
         <v>3189</v>
       </c>
       <c r="P102">
-        <v>190235</v>
+        <v>195412</v>
       </c>
       <c r="Q102" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="R102" t="s">
         <v>1490</v>
@@ -19456,7 +19456,7 @@
         <v>86</v>
       </c>
       <c r="T102" t="s">
-        <v>2447</v>
+        <v>3302</v>
       </c>
       <c r="U102" t="s">
         <v>71</v>
@@ -19482,13 +19482,13 @@
         <v>63</v>
       </c>
       <c r="G103">
-        <v>647741</v>
+        <v>489769</v>
       </c>
       <c r="H103" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="I103" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="J103" t="s">
         <v>3287</v>
@@ -19497,31 +19497,31 @@
         <v>3288</v>
       </c>
       <c r="L103" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="M103" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="N103" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O103" t="s">
         <v>3189</v>
       </c>
       <c r="P103">
-        <v>3895168</v>
+        <v>197829</v>
       </c>
       <c r="Q103" t="s">
-        <v>2431</v>
+        <v>2663</v>
       </c>
       <c r="R103" t="s">
-        <v>3332</v>
+        <v>1493</v>
       </c>
       <c r="S103" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T103" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="U103" t="s">
         <v>71</v>
@@ -19547,13 +19547,13 @@
         <v>63</v>
       </c>
       <c r="G104">
-        <v>378504</v>
+        <v>489769</v>
       </c>
       <c r="H104" t="s">
-        <v>3317</v>
+        <v>3313</v>
       </c>
       <c r="I104" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="J104" t="s">
         <v>3287</v>
@@ -19562,31 +19562,31 @@
         <v>3288</v>
       </c>
       <c r="L104" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="M104" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="N104" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O104" t="s">
         <v>3189</v>
       </c>
       <c r="P104">
-        <v>29528</v>
+        <v>190235</v>
       </c>
       <c r="Q104" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="R104" t="s">
         <v>1490</v>
       </c>
       <c r="S104" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T104" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="U104" t="s">
         <v>71</v>
@@ -19612,13 +19612,13 @@
         <v>63</v>
       </c>
       <c r="G105">
-        <v>378504</v>
+        <v>489769</v>
       </c>
       <c r="H105" t="s">
-        <v>3317</v>
+        <v>3313</v>
       </c>
       <c r="I105" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="J105" t="s">
         <v>3287</v>
@@ -19627,22 +19627,22 @@
         <v>3288</v>
       </c>
       <c r="L105" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="M105" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="N105" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O105" t="s">
         <v>3189</v>
       </c>
       <c r="P105">
-        <v>198423</v>
+        <v>533043</v>
       </c>
       <c r="Q105" t="s">
-        <v>2586</v>
+        <v>2866</v>
       </c>
       <c r="R105" t="s">
         <v>1493</v>
@@ -19651,7 +19651,7 @@
         <v>86</v>
       </c>
       <c r="T105" t="s">
-        <v>990</v>
+        <v>470</v>
       </c>
       <c r="U105" t="s">
         <v>71</v>
@@ -19677,13 +19677,13 @@
         <v>63</v>
       </c>
       <c r="G106">
-        <v>378504</v>
+        <v>489769</v>
       </c>
       <c r="H106" t="s">
-        <v>3317</v>
+        <v>3313</v>
       </c>
       <c r="I106" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="J106" t="s">
         <v>3287</v>
@@ -19692,31 +19692,31 @@
         <v>3288</v>
       </c>
       <c r="L106" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="M106" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="N106" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O106" t="s">
         <v>3189</v>
       </c>
       <c r="P106">
-        <v>3058509</v>
+        <v>195412</v>
       </c>
       <c r="Q106" t="s">
-        <v>778</v>
+        <v>147</v>
       </c>
       <c r="R106" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S106" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T106" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="U106" t="s">
         <v>71</v>
@@ -19742,13 +19742,13 @@
         <v>63</v>
       </c>
       <c r="G107">
-        <v>378504</v>
+        <v>647625</v>
       </c>
       <c r="H107" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="I107" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="J107" t="s">
         <v>3287</v>
@@ -19757,31 +19757,31 @@
         <v>3288</v>
       </c>
       <c r="L107" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="M107" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="N107" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O107" t="s">
         <v>3189</v>
       </c>
       <c r="P107">
-        <v>4005456</v>
+        <v>150218</v>
       </c>
       <c r="Q107" t="s">
-        <v>799</v>
+        <v>64</v>
       </c>
       <c r="R107" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S107" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T107" t="s">
-        <v>3338</v>
+        <v>1506</v>
       </c>
       <c r="U107" t="s">
         <v>71</v>
@@ -19807,13 +19807,13 @@
         <v>63</v>
       </c>
       <c r="G108">
-        <v>378504</v>
+        <v>647625</v>
       </c>
       <c r="H108" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="I108" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="J108" t="s">
         <v>3287</v>
@@ -19822,22 +19822,22 @@
         <v>3288</v>
       </c>
       <c r="L108" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="M108" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="N108" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O108" t="s">
         <v>3189</v>
       </c>
       <c r="P108">
-        <v>206496</v>
+        <v>29528</v>
       </c>
       <c r="Q108" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="R108" t="s">
         <v>1490</v>
@@ -19846,7 +19846,7 @@
         <v>86</v>
       </c>
       <c r="T108" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="U108" t="s">
         <v>71</v>
@@ -19872,13 +19872,13 @@
         <v>63</v>
       </c>
       <c r="G109">
-        <v>648663</v>
+        <v>647625</v>
       </c>
       <c r="H109" t="s">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="I109" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="J109" t="s">
         <v>3287</v>
@@ -19887,10 +19887,10 @@
         <v>3288</v>
       </c>
       <c r="L109" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="M109" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="N109" t="s">
         <v>3300</v>
@@ -19899,19 +19899,19 @@
         <v>3189</v>
       </c>
       <c r="P109">
-        <v>150218</v>
+        <v>61027</v>
       </c>
       <c r="Q109" t="s">
-        <v>64</v>
+        <v>449</v>
       </c>
       <c r="R109" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S109" t="s">
         <v>86</v>
       </c>
       <c r="T109" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="U109" t="s">
         <v>71</v>
@@ -19937,13 +19937,13 @@
         <v>63</v>
       </c>
       <c r="G110">
-        <v>648663</v>
+        <v>647625</v>
       </c>
       <c r="H110" t="s">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="I110" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="J110" t="s">
         <v>3287</v>
@@ -19952,10 +19952,10 @@
         <v>3288</v>
       </c>
       <c r="L110" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="M110" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="N110" t="s">
         <v>3300</v>
@@ -19964,19 +19964,19 @@
         <v>3189</v>
       </c>
       <c r="P110">
-        <v>29528</v>
+        <v>1008071</v>
       </c>
       <c r="Q110" t="s">
-        <v>87</v>
+        <v>830</v>
       </c>
       <c r="R110" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S110" t="s">
         <v>86</v>
       </c>
       <c r="T110" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="U110" t="s">
         <v>71</v>
@@ -20002,13 +20002,13 @@
         <v>63</v>
       </c>
       <c r="G111">
-        <v>648663</v>
+        <v>647625</v>
       </c>
       <c r="H111" t="s">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="I111" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="J111" t="s">
         <v>3287</v>
@@ -20017,10 +20017,10 @@
         <v>3288</v>
       </c>
       <c r="L111" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="M111" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="N111" t="s">
         <v>3300</v>
@@ -20029,19 +20029,19 @@
         <v>3189</v>
       </c>
       <c r="P111">
-        <v>237618</v>
+        <v>420166</v>
       </c>
       <c r="Q111" t="s">
-        <v>97</v>
+        <v>952</v>
       </c>
       <c r="R111" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S111" t="s">
         <v>86</v>
       </c>
       <c r="T111" t="s">
-        <v>100</v>
+        <v>1506</v>
       </c>
       <c r="U111" t="s">
         <v>71</v>
@@ -20067,13 +20067,13 @@
         <v>63</v>
       </c>
       <c r="G112">
-        <v>648663</v>
+        <v>647625</v>
       </c>
       <c r="H112" t="s">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="I112" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="J112" t="s">
         <v>3287</v>
@@ -20082,10 +20082,10 @@
         <v>3288</v>
       </c>
       <c r="L112" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="M112" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="N112" t="s">
         <v>3300</v>
@@ -20094,10 +20094,10 @@
         <v>3189</v>
       </c>
       <c r="P112">
-        <v>30593</v>
+        <v>804089</v>
       </c>
       <c r="Q112" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="R112" t="s">
         <v>1490</v>
@@ -20106,7 +20106,7 @@
         <v>86</v>
       </c>
       <c r="T112" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="U112" t="s">
         <v>71</v>
@@ -20132,13 +20132,13 @@
         <v>63</v>
       </c>
       <c r="G113">
-        <v>648663</v>
+        <v>647766</v>
       </c>
       <c r="H113" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="I113" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="J113" t="s">
         <v>3287</v>
@@ -20147,10 +20147,10 @@
         <v>3288</v>
       </c>
       <c r="L113" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="M113" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="N113" t="s">
         <v>3300</v>
@@ -20159,19 +20159,19 @@
         <v>3189</v>
       </c>
       <c r="P113">
-        <v>804089</v>
+        <v>215341</v>
       </c>
       <c r="Q113" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="R113" t="s">
         <v>1490</v>
       </c>
       <c r="S113" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T113" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="U113" t="s">
         <v>71</v>
@@ -20197,13 +20197,13 @@
         <v>63</v>
       </c>
       <c r="G114">
-        <v>648663</v>
+        <v>647766</v>
       </c>
       <c r="H114" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="I114" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="J114" t="s">
         <v>3287</v>
@@ -20212,10 +20212,10 @@
         <v>3288</v>
       </c>
       <c r="L114" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="M114" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="N114" t="s">
         <v>3300</v>
@@ -20224,19 +20224,19 @@
         <v>3189</v>
       </c>
       <c r="P114">
-        <v>195412</v>
+        <v>3895167</v>
       </c>
       <c r="Q114" t="s">
-        <v>147</v>
+        <v>2442</v>
       </c>
       <c r="R114" t="s">
-        <v>1490</v>
+        <v>3332</v>
       </c>
       <c r="S114" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T114" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="U114" t="s">
         <v>71</v>
@@ -20262,13 +20262,13 @@
         <v>63</v>
       </c>
       <c r="G115">
-        <v>648663</v>
+        <v>537549</v>
       </c>
       <c r="H115" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="I115" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="J115" t="s">
         <v>3287</v>
@@ -20277,22 +20277,22 @@
         <v>3288</v>
       </c>
       <c r="L115" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="M115" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="N115" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O115" t="s">
         <v>3189</v>
       </c>
       <c r="P115">
-        <v>215341</v>
+        <v>150218</v>
       </c>
       <c r="Q115" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="R115" t="s">
         <v>1490</v>
@@ -20301,7 +20301,7 @@
         <v>86</v>
       </c>
       <c r="T115" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="U115" t="s">
         <v>71</v>
@@ -20327,13 +20327,13 @@
         <v>63</v>
       </c>
       <c r="G116">
-        <v>648663</v>
+        <v>537549</v>
       </c>
       <c r="H116" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="I116" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="J116" t="s">
         <v>3287</v>
@@ -20342,31 +20342,31 @@
         <v>3288</v>
       </c>
       <c r="L116" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="M116" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="N116" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O116" t="s">
         <v>3189</v>
       </c>
       <c r="P116">
-        <v>215558</v>
+        <v>804089</v>
       </c>
       <c r="Q116" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="R116" t="s">
         <v>1490</v>
       </c>
       <c r="S116" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T116" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="U116" t="s">
         <v>71</v>
@@ -20392,13 +20392,13 @@
         <v>63</v>
       </c>
       <c r="G117">
-        <v>648663</v>
+        <v>647741</v>
       </c>
       <c r="H117" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="I117" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="J117" t="s">
         <v>3287</v>
@@ -20407,22 +20407,22 @@
         <v>3288</v>
       </c>
       <c r="L117" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="M117" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="N117" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O117" t="s">
         <v>3189</v>
       </c>
       <c r="P117">
-        <v>206496</v>
+        <v>190235</v>
       </c>
       <c r="Q117" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="R117" t="s">
         <v>1490</v>
@@ -20431,7 +20431,7 @@
         <v>86</v>
       </c>
       <c r="T117" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="U117" t="s">
         <v>71</v>
@@ -20457,13 +20457,13 @@
         <v>63</v>
       </c>
       <c r="G118">
-        <v>489595</v>
+        <v>647741</v>
       </c>
       <c r="H118" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="I118" t="s">
-        <v>470</v>
+        <v>2447</v>
       </c>
       <c r="J118" t="s">
         <v>3287</v>
@@ -20472,31 +20472,31 @@
         <v>3288</v>
       </c>
       <c r="L118" t="s">
-        <v>470</v>
+        <v>2447</v>
       </c>
       <c r="M118" t="s">
-        <v>470</v>
+        <v>2447</v>
       </c>
       <c r="N118" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O118" t="s">
         <v>3189</v>
       </c>
       <c r="P118">
-        <v>206496</v>
+        <v>3895168</v>
       </c>
       <c r="Q118" t="s">
-        <v>175</v>
+        <v>2431</v>
       </c>
       <c r="R118" t="s">
-        <v>1490</v>
+        <v>3332</v>
       </c>
       <c r="S118" t="s">
         <v>338</v>
       </c>
       <c r="T118" t="s">
-        <v>470</v>
+        <v>2447</v>
       </c>
       <c r="U118" t="s">
         <v>71</v>
@@ -20522,13 +20522,13 @@
         <v>63</v>
       </c>
       <c r="G119">
-        <v>489618</v>
+        <v>378504</v>
       </c>
       <c r="H119" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="I119" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="J119" t="s">
         <v>3287</v>
@@ -20537,31 +20537,31 @@
         <v>3288</v>
       </c>
       <c r="L119" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="M119" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="N119" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O119" t="s">
         <v>3189</v>
       </c>
       <c r="P119">
-        <v>3458604</v>
+        <v>29528</v>
       </c>
       <c r="Q119" t="s">
-        <v>1944</v>
+        <v>87</v>
       </c>
       <c r="R119" t="s">
-        <v>3330</v>
+        <v>1490</v>
       </c>
       <c r="S119" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T119" t="s">
-        <v>3339</v>
+        <v>3298</v>
       </c>
       <c r="U119" t="s">
         <v>71</v>
@@ -20587,13 +20587,13 @@
         <v>63</v>
       </c>
       <c r="G120">
-        <v>489618</v>
+        <v>378504</v>
       </c>
       <c r="H120" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="I120" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="J120" t="s">
         <v>3287</v>
@@ -20602,31 +20602,31 @@
         <v>3288</v>
       </c>
       <c r="L120" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="M120" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="N120" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O120" t="s">
         <v>3189</v>
       </c>
       <c r="P120">
-        <v>190235</v>
+        <v>198423</v>
       </c>
       <c r="Q120" t="s">
-        <v>117</v>
+        <v>2586</v>
       </c>
       <c r="R120" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="S120" t="s">
         <v>86</v>
       </c>
       <c r="T120" t="s">
-        <v>284</v>
+        <v>990</v>
       </c>
       <c r="U120" t="s">
         <v>71</v>
@@ -20652,13 +20652,13 @@
         <v>63</v>
       </c>
       <c r="G121">
-        <v>489618</v>
+        <v>378504</v>
       </c>
       <c r="H121" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="I121" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="J121" t="s">
         <v>3287</v>
@@ -20667,31 +20667,31 @@
         <v>3288</v>
       </c>
       <c r="L121" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="M121" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="N121" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O121" t="s">
         <v>3189</v>
       </c>
       <c r="P121">
-        <v>195412</v>
+        <v>3058509</v>
       </c>
       <c r="Q121" t="s">
-        <v>147</v>
+        <v>778</v>
       </c>
       <c r="R121" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S121" t="s">
         <v>86</v>
       </c>
       <c r="T121" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="U121" t="s">
         <v>71</v>
@@ -20717,13 +20717,13 @@
         <v>63</v>
       </c>
       <c r="G122">
-        <v>489618</v>
+        <v>378504</v>
       </c>
       <c r="H122" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="I122" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="J122" t="s">
         <v>3287</v>
@@ -20732,31 +20732,31 @@
         <v>3288</v>
       </c>
       <c r="L122" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="M122" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="N122" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O122" t="s">
         <v>3189</v>
       </c>
       <c r="P122">
-        <v>215558</v>
+        <v>4005456</v>
       </c>
       <c r="Q122" t="s">
-        <v>164</v>
+        <v>799</v>
       </c>
       <c r="R122" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S122" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T122" t="s">
-        <v>167</v>
+        <v>3338</v>
       </c>
       <c r="U122" t="s">
         <v>71</v>
@@ -20782,13 +20782,13 @@
         <v>63</v>
       </c>
       <c r="G123">
-        <v>614502</v>
+        <v>378504</v>
       </c>
       <c r="H123" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="I123" t="s">
-        <v>100</v>
+        <v>3298</v>
       </c>
       <c r="J123" t="s">
         <v>3287</v>
@@ -20797,22 +20797,22 @@
         <v>3288</v>
       </c>
       <c r="L123" t="s">
-        <v>100</v>
+        <v>3298</v>
       </c>
       <c r="M123" t="s">
-        <v>100</v>
+        <v>3298</v>
       </c>
       <c r="N123" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O123" t="s">
         <v>3189</v>
       </c>
       <c r="P123">
-        <v>29528</v>
+        <v>206496</v>
       </c>
       <c r="Q123" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="R123" t="s">
         <v>1490</v>
@@ -20821,7 +20821,7 @@
         <v>86</v>
       </c>
       <c r="T123" t="s">
-        <v>100</v>
+        <v>3298</v>
       </c>
       <c r="U123" t="s">
         <v>71</v>
@@ -20847,13 +20847,13 @@
         <v>63</v>
       </c>
       <c r="G124">
-        <v>614502</v>
+        <v>648663</v>
       </c>
       <c r="H124" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="I124" t="s">
-        <v>100</v>
+        <v>3292</v>
       </c>
       <c r="J124" t="s">
         <v>3287</v>
@@ -20862,10 +20862,10 @@
         <v>3288</v>
       </c>
       <c r="L124" t="s">
-        <v>100</v>
+        <v>3292</v>
       </c>
       <c r="M124" t="s">
-        <v>100</v>
+        <v>3292</v>
       </c>
       <c r="N124" t="s">
         <v>3300</v>
@@ -20874,19 +20874,19 @@
         <v>3189</v>
       </c>
       <c r="P124">
-        <v>237618</v>
+        <v>150218</v>
       </c>
       <c r="Q124" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="R124" t="s">
         <v>1490</v>
       </c>
       <c r="S124" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T124" t="s">
-        <v>100</v>
+        <v>3292</v>
       </c>
       <c r="U124" t="s">
         <v>71</v>
@@ -20912,13 +20912,13 @@
         <v>63</v>
       </c>
       <c r="G125">
-        <v>614502</v>
+        <v>648663</v>
       </c>
       <c r="H125" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="I125" t="s">
-        <v>100</v>
+        <v>3292</v>
       </c>
       <c r="J125" t="s">
         <v>3287</v>
@@ -20927,10 +20927,10 @@
         <v>3288</v>
       </c>
       <c r="L125" t="s">
-        <v>100</v>
+        <v>3292</v>
       </c>
       <c r="M125" t="s">
-        <v>100</v>
+        <v>3292</v>
       </c>
       <c r="N125" t="s">
         <v>3300</v>
@@ -20939,19 +20939,19 @@
         <v>3189</v>
       </c>
       <c r="P125">
-        <v>3661879</v>
+        <v>29528</v>
       </c>
       <c r="Q125" t="s">
-        <v>901</v>
+        <v>87</v>
       </c>
       <c r="R125" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S125" t="s">
         <v>86</v>
       </c>
       <c r="T125" t="s">
-        <v>100</v>
+        <v>3292</v>
       </c>
       <c r="U125" t="s">
         <v>71</v>
@@ -20977,13 +20977,13 @@
         <v>63</v>
       </c>
       <c r="G126">
-        <v>614502</v>
+        <v>648663</v>
       </c>
       <c r="H126" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="I126" t="s">
-        <v>100</v>
+        <v>3292</v>
       </c>
       <c r="J126" t="s">
         <v>3287</v>
@@ -20992,10 +20992,10 @@
         <v>3288</v>
       </c>
       <c r="L126" t="s">
-        <v>100</v>
+        <v>3292</v>
       </c>
       <c r="M126" t="s">
-        <v>100</v>
+        <v>3292</v>
       </c>
       <c r="N126" t="s">
         <v>3300</v>
@@ -21004,10 +21004,10 @@
         <v>3189</v>
       </c>
       <c r="P126">
-        <v>206496</v>
+        <v>237618</v>
       </c>
       <c r="Q126" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="R126" t="s">
         <v>1490</v>
@@ -21019,6 +21019,721 @@
         <v>100</v>
       </c>
       <c r="U126" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>204340</v>
+      </c>
+      <c r="B127" t="s">
+        <v>59</v>
+      </c>
+      <c r="C127" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E127" t="s">
+        <v>62</v>
+      </c>
+      <c r="F127" t="s">
+        <v>63</v>
+      </c>
+      <c r="G127">
+        <v>648663</v>
+      </c>
+      <c r="H127" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I127" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J127" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K127" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L127" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M127" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N127" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O127" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P127">
+        <v>30593</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>108</v>
+      </c>
+      <c r="R127" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S127" t="s">
+        <v>86</v>
+      </c>
+      <c r="T127" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U127" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>204340</v>
+      </c>
+      <c r="B128" t="s">
+        <v>59</v>
+      </c>
+      <c r="C128" t="s">
+        <v>60</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E128" t="s">
+        <v>62</v>
+      </c>
+      <c r="F128" t="s">
+        <v>63</v>
+      </c>
+      <c r="G128">
+        <v>648663</v>
+      </c>
+      <c r="H128" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I128" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J128" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K128" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L128" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M128" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N128" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O128" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P128">
+        <v>804089</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>139</v>
+      </c>
+      <c r="R128" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S128" t="s">
+        <v>338</v>
+      </c>
+      <c r="T128" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U128" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>204340</v>
+      </c>
+      <c r="B129" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E129" t="s">
+        <v>62</v>
+      </c>
+      <c r="F129" t="s">
+        <v>63</v>
+      </c>
+      <c r="G129">
+        <v>648663</v>
+      </c>
+      <c r="H129" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I129" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J129" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K129" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L129" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M129" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N129" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O129" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P129">
+        <v>195412</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>147</v>
+      </c>
+      <c r="R129" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S129" t="s">
+        <v>86</v>
+      </c>
+      <c r="T129" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U129" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>204340</v>
+      </c>
+      <c r="B130" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E130" t="s">
+        <v>62</v>
+      </c>
+      <c r="F130" t="s">
+        <v>63</v>
+      </c>
+      <c r="G130">
+        <v>648663</v>
+      </c>
+      <c r="H130" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I130" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J130" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K130" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L130" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M130" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N130" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O130" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P130">
+        <v>215341</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>156</v>
+      </c>
+      <c r="R130" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S130" t="s">
+        <v>86</v>
+      </c>
+      <c r="T130" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U130" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>204340</v>
+      </c>
+      <c r="B131" t="s">
+        <v>59</v>
+      </c>
+      <c r="C131" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E131" t="s">
+        <v>62</v>
+      </c>
+      <c r="F131" t="s">
+        <v>63</v>
+      </c>
+      <c r="G131">
+        <v>648663</v>
+      </c>
+      <c r="H131" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I131" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J131" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K131" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L131" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M131" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N131" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O131" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P131">
+        <v>215558</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>164</v>
+      </c>
+      <c r="R131" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S131" t="s">
+        <v>86</v>
+      </c>
+      <c r="T131" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U131" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>204340</v>
+      </c>
+      <c r="B132" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" t="s">
+        <v>60</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E132" t="s">
+        <v>62</v>
+      </c>
+      <c r="F132" t="s">
+        <v>63</v>
+      </c>
+      <c r="G132">
+        <v>648663</v>
+      </c>
+      <c r="H132" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I132" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J132" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K132" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L132" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M132" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N132" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O132" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P132">
+        <v>206496</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>175</v>
+      </c>
+      <c r="R132" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S132" t="s">
+        <v>86</v>
+      </c>
+      <c r="T132" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U132" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>204340</v>
+      </c>
+      <c r="B133" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" t="s">
+        <v>60</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E133" t="s">
+        <v>62</v>
+      </c>
+      <c r="F133" t="s">
+        <v>63</v>
+      </c>
+      <c r="G133">
+        <v>489595</v>
+      </c>
+      <c r="H133" t="s">
+        <v>3320</v>
+      </c>
+      <c r="I133" t="s">
+        <v>470</v>
+      </c>
+      <c r="J133" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K133" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L133" t="s">
+        <v>470</v>
+      </c>
+      <c r="M133" t="s">
+        <v>470</v>
+      </c>
+      <c r="N133" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O133" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P133">
+        <v>206496</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>175</v>
+      </c>
+      <c r="R133" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S133" t="s">
+        <v>338</v>
+      </c>
+      <c r="T133" t="s">
+        <v>470</v>
+      </c>
+      <c r="U133" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>204340</v>
+      </c>
+      <c r="B134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" t="s">
+        <v>60</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E134" t="s">
+        <v>62</v>
+      </c>
+      <c r="F134" t="s">
+        <v>63</v>
+      </c>
+      <c r="G134">
+        <v>489618</v>
+      </c>
+      <c r="H134" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I134" t="s">
+        <v>284</v>
+      </c>
+      <c r="J134" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K134" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L134" t="s">
+        <v>284</v>
+      </c>
+      <c r="M134" t="s">
+        <v>284</v>
+      </c>
+      <c r="N134" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O134" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P134">
+        <v>3458604</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>1944</v>
+      </c>
+      <c r="R134" t="s">
+        <v>3330</v>
+      </c>
+      <c r="S134" t="s">
+        <v>86</v>
+      </c>
+      <c r="T134" t="s">
+        <v>3339</v>
+      </c>
+      <c r="U134" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>204340</v>
+      </c>
+      <c r="B135" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E135" t="s">
+        <v>62</v>
+      </c>
+      <c r="F135" t="s">
+        <v>63</v>
+      </c>
+      <c r="G135">
+        <v>489618</v>
+      </c>
+      <c r="H135" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I135" t="s">
+        <v>284</v>
+      </c>
+      <c r="J135" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K135" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L135" t="s">
+        <v>284</v>
+      </c>
+      <c r="M135" t="s">
+        <v>284</v>
+      </c>
+      <c r="N135" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O135" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P135">
+        <v>190235</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>117</v>
+      </c>
+      <c r="R135" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S135" t="s">
+        <v>86</v>
+      </c>
+      <c r="T135" t="s">
+        <v>284</v>
+      </c>
+      <c r="U135" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>204340</v>
+      </c>
+      <c r="B136" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E136" t="s">
+        <v>62</v>
+      </c>
+      <c r="F136" t="s">
+        <v>63</v>
+      </c>
+      <c r="G136">
+        <v>489618</v>
+      </c>
+      <c r="H136" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I136" t="s">
+        <v>284</v>
+      </c>
+      <c r="J136" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K136" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L136" t="s">
+        <v>284</v>
+      </c>
+      <c r="M136" t="s">
+        <v>284</v>
+      </c>
+      <c r="N136" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O136" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P136">
+        <v>195412</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>147</v>
+      </c>
+      <c r="R136" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S136" t="s">
+        <v>86</v>
+      </c>
+      <c r="T136" t="s">
+        <v>284</v>
+      </c>
+      <c r="U136" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>204340</v>
+      </c>
+      <c r="B137" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" t="s">
+        <v>60</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E137" t="s">
+        <v>62</v>
+      </c>
+      <c r="F137" t="s">
+        <v>63</v>
+      </c>
+      <c r="G137">
+        <v>489618</v>
+      </c>
+      <c r="H137" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I137" t="s">
+        <v>284</v>
+      </c>
+      <c r="J137" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K137" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L137" t="s">
+        <v>284</v>
+      </c>
+      <c r="M137" t="s">
+        <v>284</v>
+      </c>
+      <c r="N137" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O137" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P137">
+        <v>215558</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>164</v>
+      </c>
+      <c r="R137" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S137" t="s">
+        <v>338</v>
+      </c>
+      <c r="T137" t="s">
+        <v>167</v>
+      </c>
+      <c r="U137" t="s">
         <v>71</v>
       </c>
     </row>
@@ -22619,13 +23334,13 @@
         <v>63</v>
       </c>
       <c r="G24">
-        <v>537550</v>
+        <v>614502</v>
       </c>
       <c r="H24" t="s">
         <v>3310</v>
       </c>
       <c r="I24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s">
         <v>3287</v>
@@ -22634,10 +23349,10 @@
         <v>3288</v>
       </c>
       <c r="L24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N24" t="s">
         <v>3300</v>
@@ -22661,7 +23376,7 @@
         <v>86</v>
       </c>
       <c r="U24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V24" t="s">
         <v>71</v>
@@ -22687,13 +23402,13 @@
         <v>63</v>
       </c>
       <c r="G25">
-        <v>454118</v>
+        <v>537550</v>
       </c>
       <c r="H25" t="s">
         <v>3311</v>
       </c>
       <c r="I25" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="J25" t="s">
         <v>3287</v>
@@ -22702,10 +23417,10 @@
         <v>3288</v>
       </c>
       <c r="L25" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="M25" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="N25" t="s">
         <v>3300</v>
@@ -22729,7 +23444,7 @@
         <v>86</v>
       </c>
       <c r="U25" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="V25" t="s">
         <v>71</v>
@@ -22758,7 +23473,7 @@
         <v>454118</v>
       </c>
       <c r="H26" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="I26" t="s">
         <v>3302</v>
@@ -22826,7 +23541,7 @@
         <v>454118</v>
       </c>
       <c r="H27" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="I27" t="s">
         <v>3302</v>
@@ -22850,22 +23565,22 @@
         <v>3189</v>
       </c>
       <c r="P27" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="Q27" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
       <c r="R27" t="s">
         <v>3349</v>
       </c>
       <c r="S27" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="T27" t="s">
         <v>86</v>
       </c>
       <c r="U27" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="V27" t="s">
         <v>71</v>
@@ -22891,13 +23606,13 @@
         <v>63</v>
       </c>
       <c r="G28">
-        <v>489769</v>
+        <v>454118</v>
       </c>
       <c r="H28" t="s">
         <v>3312</v>
       </c>
       <c r="I28" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="J28" t="s">
         <v>3287</v>
@@ -22906,10 +23621,10 @@
         <v>3288</v>
       </c>
       <c r="L28" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="M28" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="N28" t="s">
         <v>3300</v>
@@ -22918,22 +23633,22 @@
         <v>3189</v>
       </c>
       <c r="P28" t="s">
-        <v>3347</v>
+        <v>3351</v>
       </c>
       <c r="Q28" t="s">
-        <v>3348</v>
+        <v>3352</v>
       </c>
       <c r="R28" t="s">
         <v>3349</v>
       </c>
       <c r="S28" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
       <c r="T28" t="s">
         <v>86</v>
       </c>
       <c r="U28" t="s">
-        <v>470</v>
+        <v>1506</v>
       </c>
       <c r="V28" t="s">
         <v>71</v>
@@ -22962,7 +23677,7 @@
         <v>489769</v>
       </c>
       <c r="H29" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="I29" t="s">
         <v>470</v>
@@ -22986,16 +23701,16 @@
         <v>3189</v>
       </c>
       <c r="P29" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="Q29" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
       <c r="R29" t="s">
         <v>3349</v>
       </c>
       <c r="S29" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="T29" t="s">
         <v>86</v>
@@ -23027,13 +23742,13 @@
         <v>63</v>
       </c>
       <c r="G30">
-        <v>647625</v>
+        <v>489769</v>
       </c>
       <c r="H30" t="s">
         <v>3313</v>
       </c>
       <c r="I30" t="s">
-        <v>1506</v>
+        <v>470</v>
       </c>
       <c r="J30" t="s">
         <v>3287</v>
@@ -23042,10 +23757,10 @@
         <v>3288</v>
       </c>
       <c r="L30" t="s">
-        <v>1506</v>
+        <v>470</v>
       </c>
       <c r="M30" t="s">
-        <v>1506</v>
+        <v>470</v>
       </c>
       <c r="N30" t="s">
         <v>3300</v>
@@ -23054,7 +23769,7 @@
         <v>3189</v>
       </c>
       <c r="P30" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="Q30" t="s">
         <v>3352</v>
@@ -23063,13 +23778,13 @@
         <v>3349</v>
       </c>
       <c r="S30" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
       <c r="T30" t="s">
         <v>86</v>
       </c>
       <c r="U30" t="s">
-        <v>1506</v>
+        <v>470</v>
       </c>
       <c r="V30" t="s">
         <v>71</v>
@@ -23098,7 +23813,7 @@
         <v>647625</v>
       </c>
       <c r="H31" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="I31" t="s">
         <v>1506</v>
@@ -23125,7 +23840,7 @@
         <v>3354</v>
       </c>
       <c r="Q31" t="s">
-        <v>3348</v>
+        <v>3352</v>
       </c>
       <c r="R31" t="s">
         <v>3349</v>
@@ -23166,7 +23881,7 @@
         <v>647625</v>
       </c>
       <c r="H32" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="I32" t="s">
         <v>1506</v>
@@ -23190,7 +23905,7 @@
         <v>3189</v>
       </c>
       <c r="P32" t="s">
-        <v>3347</v>
+        <v>3354</v>
       </c>
       <c r="Q32" t="s">
         <v>3348</v>
@@ -23199,7 +23914,7 @@
         <v>3349</v>
       </c>
       <c r="S32" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T32" t="s">
         <v>86</v>
@@ -23234,7 +23949,7 @@
         <v>647625</v>
       </c>
       <c r="H33" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="I33" t="s">
         <v>1506</v>
@@ -23258,16 +23973,16 @@
         <v>3189</v>
       </c>
       <c r="P33" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="Q33" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
       <c r="R33" t="s">
         <v>3349</v>
       </c>
       <c r="S33" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="T33" t="s">
         <v>86</v>
@@ -23299,13 +24014,13 @@
         <v>63</v>
       </c>
       <c r="G34">
-        <v>378504</v>
+        <v>647625</v>
       </c>
       <c r="H34" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="I34" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="J34" t="s">
         <v>3287</v>
@@ -23314,34 +24029,34 @@
         <v>3288</v>
       </c>
       <c r="L34" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="M34" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="N34" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O34" t="s">
         <v>3189</v>
       </c>
       <c r="P34" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="Q34" t="s">
-        <v>3348</v>
+        <v>3352</v>
       </c>
       <c r="R34" t="s">
         <v>3349</v>
       </c>
       <c r="S34" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
       <c r="T34" t="s">
         <v>86</v>
       </c>
       <c r="U34" t="s">
-        <v>1108</v>
+        <v>1506</v>
       </c>
       <c r="V34" t="s">
         <v>71</v>
@@ -23370,7 +24085,7 @@
         <v>378504</v>
       </c>
       <c r="H35" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="I35" t="s">
         <v>3298</v>
@@ -23394,7 +24109,7 @@
         <v>3189</v>
       </c>
       <c r="P35" t="s">
-        <v>3347</v>
+        <v>3354</v>
       </c>
       <c r="Q35" t="s">
         <v>3348</v>
@@ -23403,13 +24118,13 @@
         <v>3349</v>
       </c>
       <c r="S35" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T35" t="s">
         <v>86</v>
       </c>
       <c r="U35" t="s">
-        <v>3298</v>
+        <v>1108</v>
       </c>
       <c r="V35" t="s">
         <v>71</v>
@@ -23438,7 +24153,7 @@
         <v>378504</v>
       </c>
       <c r="H36" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="I36" t="s">
         <v>3298</v>
@@ -23462,7 +24177,7 @@
         <v>3189</v>
       </c>
       <c r="P36" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="Q36" t="s">
         <v>3348</v>
@@ -23471,7 +24186,7 @@
         <v>3349</v>
       </c>
       <c r="S36" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="T36" t="s">
         <v>86</v>
@@ -23503,13 +24218,13 @@
         <v>63</v>
       </c>
       <c r="G37">
-        <v>648663</v>
+        <v>378504</v>
       </c>
       <c r="H37" t="s">
         <v>3318</v>
       </c>
       <c r="I37" t="s">
-        <v>3292</v>
+        <v>3298</v>
       </c>
       <c r="J37" t="s">
         <v>3287</v>
@@ -23518,19 +24233,19 @@
         <v>3288</v>
       </c>
       <c r="L37" t="s">
-        <v>3292</v>
+        <v>3298</v>
       </c>
       <c r="M37" t="s">
-        <v>3292</v>
+        <v>3298</v>
       </c>
       <c r="N37" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O37" t="s">
         <v>3189</v>
       </c>
       <c r="P37" t="s">
-        <v>3347</v>
+        <v>3351</v>
       </c>
       <c r="Q37" t="s">
         <v>3348</v>
@@ -23539,13 +24254,13 @@
         <v>3349</v>
       </c>
       <c r="S37" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
       <c r="T37" t="s">
         <v>86</v>
       </c>
       <c r="U37" t="s">
-        <v>3292</v>
+        <v>3298</v>
       </c>
       <c r="V37" t="s">
         <v>71</v>
@@ -23574,7 +24289,7 @@
         <v>648663</v>
       </c>
       <c r="H38" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="I38" t="s">
         <v>3292</v>
@@ -23598,22 +24313,22 @@
         <v>3189</v>
       </c>
       <c r="P38" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="Q38" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
       <c r="R38" t="s">
         <v>3349</v>
       </c>
       <c r="S38" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="T38" t="s">
         <v>86</v>
       </c>
       <c r="U38" t="s">
-        <v>3339</v>
+        <v>3292</v>
       </c>
       <c r="V38" t="s">
         <v>71</v>
@@ -23639,13 +24354,13 @@
         <v>63</v>
       </c>
       <c r="G39">
-        <v>489595</v>
+        <v>648663</v>
       </c>
       <c r="H39" t="s">
         <v>3319</v>
       </c>
       <c r="I39" t="s">
-        <v>470</v>
+        <v>3292</v>
       </c>
       <c r="J39" t="s">
         <v>3287</v>
@@ -23654,10 +24369,10 @@
         <v>3288</v>
       </c>
       <c r="L39" t="s">
-        <v>470</v>
+        <v>3292</v>
       </c>
       <c r="M39" t="s">
-        <v>470</v>
+        <v>3292</v>
       </c>
       <c r="N39" t="s">
         <v>3300</v>
@@ -23666,22 +24381,22 @@
         <v>3189</v>
       </c>
       <c r="P39" t="s">
-        <v>3347</v>
+        <v>3351</v>
       </c>
       <c r="Q39" t="s">
-        <v>3348</v>
+        <v>3352</v>
       </c>
       <c r="R39" t="s">
         <v>3349</v>
       </c>
       <c r="S39" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
       <c r="T39" t="s">
         <v>86</v>
       </c>
       <c r="U39" t="s">
-        <v>470</v>
+        <v>3339</v>
       </c>
       <c r="V39" t="s">
         <v>71</v>
@@ -23710,7 +24425,7 @@
         <v>489595</v>
       </c>
       <c r="H40" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="I40" t="s">
         <v>470</v>
@@ -23775,13 +24490,13 @@
         <v>63</v>
       </c>
       <c r="G41">
-        <v>489618</v>
+        <v>489595</v>
       </c>
       <c r="H41" t="s">
         <v>3320</v>
       </c>
       <c r="I41" t="s">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="J41" t="s">
         <v>3287</v>
@@ -23790,10 +24505,10 @@
         <v>3288</v>
       </c>
       <c r="L41" t="s">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="M41" t="s">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="N41" t="s">
         <v>3300</v>
@@ -23817,7 +24532,7 @@
         <v>86</v>
       </c>
       <c r="U41" t="s">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="V41" t="s">
         <v>71</v>
@@ -23846,7 +24561,7 @@
         <v>489618</v>
       </c>
       <c r="H42" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="I42" t="s">
         <v>284</v>
@@ -23870,22 +24585,22 @@
         <v>3189</v>
       </c>
       <c r="P42" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="Q42" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
       <c r="R42" t="s">
         <v>3349</v>
       </c>
       <c r="S42" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="T42" t="s">
         <v>86</v>
       </c>
       <c r="U42" t="s">
-        <v>3357</v>
+        <v>284</v>
       </c>
       <c r="V42" t="s">
         <v>71</v>
@@ -23911,13 +24626,13 @@
         <v>63</v>
       </c>
       <c r="G43">
-        <v>614502</v>
+        <v>489618</v>
       </c>
       <c r="H43" t="s">
         <v>3321</v>
       </c>
       <c r="I43" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="J43" t="s">
         <v>3287</v>
@@ -23926,10 +24641,10 @@
         <v>3288</v>
       </c>
       <c r="L43" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="N43" t="s">
         <v>3300</v>
@@ -23938,22 +24653,22 @@
         <v>3189</v>
       </c>
       <c r="P43" t="s">
-        <v>3347</v>
+        <v>3351</v>
       </c>
       <c r="Q43" t="s">
-        <v>3348</v>
+        <v>3352</v>
       </c>
       <c r="R43" t="s">
         <v>3349</v>
       </c>
       <c r="S43" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
       <c r="T43" t="s">
         <v>86</v>
       </c>
       <c r="U43" t="s">
-        <v>100</v>
+        <v>3357</v>
       </c>
       <c r="V43" t="s">
         <v>71</v>
@@ -24828,13 +25543,13 @@
         <v>71</v>
       </c>
       <c r="M5">
-        <v>537550</v>
+        <v>614502</v>
       </c>
       <c r="N5" t="s">
         <v>3310</v>
       </c>
       <c r="O5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P5" t="s">
         <v>3287</v>
@@ -24843,10 +25558,10 @@
         <v>3288</v>
       </c>
       <c r="R5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="S5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -24887,13 +25602,13 @@
         <v>71</v>
       </c>
       <c r="M6">
-        <v>454118</v>
+        <v>537550</v>
       </c>
       <c r="N6" t="s">
         <v>3311</v>
       </c>
       <c r="O6" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="P6" t="s">
         <v>3287</v>
@@ -24902,10 +25617,10 @@
         <v>3288</v>
       </c>
       <c r="R6" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="S6" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -24946,13 +25661,13 @@
         <v>71</v>
       </c>
       <c r="M7">
-        <v>489769</v>
+        <v>454118</v>
       </c>
       <c r="N7" t="s">
         <v>3312</v>
       </c>
       <c r="O7" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="P7" t="s">
         <v>3287</v>
@@ -24961,10 +25676,10 @@
         <v>3288</v>
       </c>
       <c r="R7" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="S7" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -25005,13 +25720,13 @@
         <v>71</v>
       </c>
       <c r="M8">
-        <v>647625</v>
+        <v>489769</v>
       </c>
       <c r="N8" t="s">
         <v>3313</v>
       </c>
       <c r="O8" t="s">
-        <v>1506</v>
+        <v>470</v>
       </c>
       <c r="P8" t="s">
         <v>3287</v>
@@ -25020,10 +25735,10 @@
         <v>3288</v>
       </c>
       <c r="R8" t="s">
-        <v>1506</v>
+        <v>470</v>
       </c>
       <c r="S8" t="s">
-        <v>1506</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -25064,13 +25779,13 @@
         <v>71</v>
       </c>
       <c r="M9">
-        <v>647766</v>
+        <v>647625</v>
       </c>
       <c r="N9" t="s">
         <v>3314</v>
       </c>
       <c r="O9" t="s">
-        <v>2447</v>
+        <v>1506</v>
       </c>
       <c r="P9" t="s">
         <v>3287</v>
@@ -25079,10 +25794,10 @@
         <v>3288</v>
       </c>
       <c r="R9" t="s">
-        <v>2447</v>
+        <v>1506</v>
       </c>
       <c r="S9" t="s">
-        <v>2447</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -25123,13 +25838,13 @@
         <v>71</v>
       </c>
       <c r="M10">
-        <v>648663</v>
+        <v>647766</v>
       </c>
       <c r="N10" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="O10" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="P10" t="s">
         <v>3287</v>
@@ -25138,10 +25853,10 @@
         <v>3288</v>
       </c>
       <c r="R10" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="S10" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -25182,13 +25897,13 @@
         <v>71</v>
       </c>
       <c r="M11">
-        <v>489595</v>
+        <v>648663</v>
       </c>
       <c r="N11" t="s">
         <v>3319</v>
       </c>
       <c r="O11" t="s">
-        <v>470</v>
+        <v>3292</v>
       </c>
       <c r="P11" t="s">
         <v>3287</v>
@@ -25197,10 +25912,10 @@
         <v>3288</v>
       </c>
       <c r="R11" t="s">
-        <v>470</v>
+        <v>3292</v>
       </c>
       <c r="S11" t="s">
-        <v>470</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -25241,13 +25956,13 @@
         <v>71</v>
       </c>
       <c r="M12">
-        <v>489618</v>
+        <v>489595</v>
       </c>
       <c r="N12" t="s">
         <v>3320</v>
       </c>
       <c r="O12" t="s">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="P12" t="s">
         <v>3287</v>
@@ -25256,10 +25971,10 @@
         <v>3288</v>
       </c>
       <c r="R12" t="s">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="S12" t="s">
-        <v>284</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -25300,13 +26015,13 @@
         <v>71</v>
       </c>
       <c r="M13">
-        <v>614502</v>
+        <v>489618</v>
       </c>
       <c r="N13" t="s">
         <v>3321</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="P13" t="s">
         <v>3287</v>
@@ -25315,10 +26030,10 @@
         <v>3288</v>
       </c>
       <c r="R13" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="S13" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -25775,7 +26490,7 @@
         <v>537549</v>
       </c>
       <c r="N21" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="O21" t="s">
         <v>111</v>
@@ -25834,7 +26549,7 @@
         <v>647741</v>
       </c>
       <c r="N22" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="O22" t="s">
         <v>2447</v>
@@ -25893,7 +26608,7 @@
         <v>378504</v>
       </c>
       <c r="N23" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="O23" t="s">
         <v>3298</v>
@@ -101506,7 +102221,7 @@
         <v>3189</v>
       </c>
       <c r="P4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -102115,13 +102830,13 @@
         <v>63</v>
       </c>
       <c r="G16">
-        <v>537550</v>
+        <v>614502</v>
       </c>
       <c r="H16" t="s">
         <v>3310</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
         <v>3287</v>
@@ -102130,10 +102845,10 @@
         <v>3288</v>
       </c>
       <c r="L16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N16" t="s">
         <v>3300</v>
@@ -102142,7 +102857,7 @@
         <v>3189</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -102168,13 +102883,13 @@
         <v>63</v>
       </c>
       <c r="G17">
-        <v>454118</v>
+        <v>537550</v>
       </c>
       <c r="H17" t="s">
         <v>3311</v>
       </c>
       <c r="I17" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="J17" t="s">
         <v>3287</v>
@@ -102183,10 +102898,10 @@
         <v>3288</v>
       </c>
       <c r="L17" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="M17" t="s">
-        <v>3302</v>
+        <v>111</v>
       </c>
       <c r="N17" t="s">
         <v>3300</v>
@@ -102195,10 +102910,10 @@
         <v>3189</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -102221,13 +102936,13 @@
         <v>63</v>
       </c>
       <c r="G18">
-        <v>489769</v>
+        <v>454118</v>
       </c>
       <c r="H18" t="s">
         <v>3312</v>
       </c>
       <c r="I18" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="J18" t="s">
         <v>3287</v>
@@ -102236,10 +102951,10 @@
         <v>3288</v>
       </c>
       <c r="L18" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="M18" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="N18" t="s">
         <v>3300</v>
@@ -102248,10 +102963,10 @@
         <v>3189</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -102274,13 +102989,13 @@
         <v>63</v>
       </c>
       <c r="G19">
-        <v>647625</v>
+        <v>489769</v>
       </c>
       <c r="H19" t="s">
         <v>3313</v>
       </c>
       <c r="I19" t="s">
-        <v>1506</v>
+        <v>470</v>
       </c>
       <c r="J19" t="s">
         <v>3287</v>
@@ -102289,10 +103004,10 @@
         <v>3288</v>
       </c>
       <c r="L19" t="s">
-        <v>1506</v>
+        <v>470</v>
       </c>
       <c r="M19" t="s">
-        <v>1506</v>
+        <v>470</v>
       </c>
       <c r="N19" t="s">
         <v>3300</v>
@@ -102301,10 +103016,10 @@
         <v>3189</v>
       </c>
       <c r="P19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -102327,13 +103042,13 @@
         <v>63</v>
       </c>
       <c r="G20">
-        <v>647766</v>
+        <v>647625</v>
       </c>
       <c r="H20" t="s">
         <v>3314</v>
       </c>
       <c r="I20" t="s">
-        <v>2447</v>
+        <v>1506</v>
       </c>
       <c r="J20" t="s">
         <v>3287</v>
@@ -102342,10 +103057,10 @@
         <v>3288</v>
       </c>
       <c r="L20" t="s">
-        <v>2447</v>
+        <v>1506</v>
       </c>
       <c r="M20" t="s">
-        <v>2447</v>
+        <v>1506</v>
       </c>
       <c r="N20" t="s">
         <v>3300</v>
@@ -102354,10 +103069,10 @@
         <v>3189</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -102380,13 +103095,13 @@
         <v>63</v>
       </c>
       <c r="G21">
-        <v>537549</v>
+        <v>647766</v>
       </c>
       <c r="H21" t="s">
         <v>3315</v>
       </c>
       <c r="I21" t="s">
-        <v>111</v>
+        <v>2447</v>
       </c>
       <c r="J21" t="s">
         <v>3287</v>
@@ -102395,13 +103110,13 @@
         <v>3288</v>
       </c>
       <c r="L21" t="s">
-        <v>111</v>
+        <v>2447</v>
       </c>
       <c r="M21" t="s">
-        <v>111</v>
+        <v>2447</v>
       </c>
       <c r="N21" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O21" t="s">
         <v>3189</v>
@@ -102433,13 +103148,13 @@
         <v>63</v>
       </c>
       <c r="G22">
-        <v>647741</v>
+        <v>537549</v>
       </c>
       <c r="H22" t="s">
         <v>3316</v>
       </c>
       <c r="I22" t="s">
-        <v>2447</v>
+        <v>111</v>
       </c>
       <c r="J22" t="s">
         <v>3287</v>
@@ -102448,10 +103163,10 @@
         <v>3288</v>
       </c>
       <c r="L22" t="s">
-        <v>2447</v>
+        <v>111</v>
       </c>
       <c r="M22" t="s">
-        <v>2447</v>
+        <v>111</v>
       </c>
       <c r="N22" t="s">
         <v>3289</v>
@@ -102486,13 +103201,13 @@
         <v>63</v>
       </c>
       <c r="G23">
-        <v>378504</v>
+        <v>647741</v>
       </c>
       <c r="H23" t="s">
         <v>3317</v>
       </c>
       <c r="I23" t="s">
-        <v>3298</v>
+        <v>2447</v>
       </c>
       <c r="J23" t="s">
         <v>3287</v>
@@ -102501,10 +103216,10 @@
         <v>3288</v>
       </c>
       <c r="L23" t="s">
-        <v>3298</v>
+        <v>2447</v>
       </c>
       <c r="M23" t="s">
-        <v>3298</v>
+        <v>2447</v>
       </c>
       <c r="N23" t="s">
         <v>3289</v>
@@ -102513,10 +103228,10 @@
         <v>3189</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -102539,13 +103254,13 @@
         <v>63</v>
       </c>
       <c r="G24">
-        <v>648663</v>
+        <v>378504</v>
       </c>
       <c r="H24" t="s">
         <v>3318</v>
       </c>
       <c r="I24" t="s">
-        <v>3292</v>
+        <v>3298</v>
       </c>
       <c r="J24" t="s">
         <v>3287</v>
@@ -102554,22 +103269,22 @@
         <v>3288</v>
       </c>
       <c r="L24" t="s">
-        <v>3292</v>
+        <v>3298</v>
       </c>
       <c r="M24" t="s">
-        <v>3292</v>
+        <v>3298</v>
       </c>
       <c r="N24" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O24" t="s">
         <v>3189</v>
       </c>
       <c r="P24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -102592,13 +103307,13 @@
         <v>63</v>
       </c>
       <c r="G25">
-        <v>489595</v>
+        <v>648663</v>
       </c>
       <c r="H25" t="s">
         <v>3319</v>
       </c>
       <c r="I25" t="s">
-        <v>470</v>
+        <v>3292</v>
       </c>
       <c r="J25" t="s">
         <v>3287</v>
@@ -102607,10 +103322,10 @@
         <v>3288</v>
       </c>
       <c r="L25" t="s">
-        <v>470</v>
+        <v>3292</v>
       </c>
       <c r="M25" t="s">
-        <v>470</v>
+        <v>3292</v>
       </c>
       <c r="N25" t="s">
         <v>3300</v>
@@ -102619,7 +103334,7 @@
         <v>3189</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -102645,13 +103360,13 @@
         <v>63</v>
       </c>
       <c r="G26">
-        <v>489618</v>
+        <v>489595</v>
       </c>
       <c r="H26" t="s">
         <v>3320</v>
       </c>
       <c r="I26" t="s">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="J26" t="s">
         <v>3287</v>
@@ -102660,10 +103375,10 @@
         <v>3288</v>
       </c>
       <c r="L26" t="s">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="M26" t="s">
-        <v>284</v>
+        <v>470</v>
       </c>
       <c r="N26" t="s">
         <v>3300</v>
@@ -102672,7 +103387,7 @@
         <v>3189</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -102698,13 +103413,13 @@
         <v>63</v>
       </c>
       <c r="G27">
-        <v>614502</v>
+        <v>489618</v>
       </c>
       <c r="H27" t="s">
         <v>3321</v>
       </c>
       <c r="I27" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="J27" t="s">
         <v>3287</v>
@@ -102713,10 +103428,10 @@
         <v>3288</v>
       </c>
       <c r="L27" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="N27" t="s">
         <v>3300</v>
@@ -102728,7 +103443,7 @@
         <v>4</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Sucupira/2022/conferencia_programa.xlsx
+++ b/Sucupira/2022/conferencia_programa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4412E84-8E1B-9246-82C6-D4C875511C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F0D6A6-CBD0-7449-8A24-25B0FEC0F130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Docentes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25888" uniqueCount="3425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26140" uniqueCount="3430">
   <si>
     <t>Identificador do PPG</t>
   </si>
@@ -10052,7 +10052,22 @@
     <t>04/10/2014</t>
   </si>
   <si>
+    <t>04/11/2020</t>
+  </si>
+  <si>
+    <t>04/08/2020</t>
+  </si>
+  <si>
     <t>19/07/2021</t>
+  </si>
+  <si>
+    <t>26/11/2019</t>
+  </si>
+  <si>
+    <t>08/05/2020</t>
+  </si>
+  <si>
+    <t>31/07/2019</t>
   </si>
   <si>
     <t>01/02/2021</t>
@@ -12826,7 +12841,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:U137"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17494,19 +17509,19 @@
         <v>3189</v>
       </c>
       <c r="P72">
-        <v>197829</v>
+        <v>3895832</v>
       </c>
       <c r="Q72" t="s">
-        <v>2663</v>
+        <v>424</v>
       </c>
       <c r="R72" t="s">
-        <v>1493</v>
+        <v>3328</v>
       </c>
       <c r="S72" t="s">
         <v>86</v>
       </c>
       <c r="T72" t="s">
-        <v>3302</v>
+        <v>211</v>
       </c>
       <c r="U72" t="s">
         <v>71</v>
@@ -17559,19 +17574,19 @@
         <v>3189</v>
       </c>
       <c r="P73">
-        <v>190235</v>
+        <v>3752654</v>
       </c>
       <c r="Q73" t="s">
-        <v>117</v>
+        <v>455</v>
       </c>
       <c r="R73" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S73" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T73" t="s">
-        <v>3302</v>
+        <v>459</v>
       </c>
       <c r="U73" t="s">
         <v>71</v>
@@ -17624,19 +17639,19 @@
         <v>3189</v>
       </c>
       <c r="P74">
-        <v>195412</v>
+        <v>3458535</v>
       </c>
       <c r="Q74" t="s">
-        <v>147</v>
+        <v>551</v>
       </c>
       <c r="R74" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S74" t="s">
         <v>86</v>
       </c>
       <c r="T74" t="s">
-        <v>3302</v>
+        <v>3337</v>
       </c>
       <c r="U74" t="s">
         <v>71</v>
@@ -17662,13 +17677,13 @@
         <v>63</v>
       </c>
       <c r="G75">
-        <v>537143</v>
+        <v>454142</v>
       </c>
       <c r="H75" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="I75" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="J75" t="s">
         <v>3287</v>
@@ -17677,31 +17692,31 @@
         <v>3288</v>
       </c>
       <c r="L75" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="M75" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="N75" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="O75" t="s">
         <v>3189</v>
       </c>
       <c r="P75">
-        <v>29528</v>
+        <v>3895842</v>
       </c>
       <c r="Q75" t="s">
-        <v>87</v>
+        <v>588</v>
       </c>
       <c r="R75" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S75" t="s">
         <v>86</v>
       </c>
       <c r="T75" t="s">
-        <v>111</v>
+        <v>3338</v>
       </c>
       <c r="U75" t="s">
         <v>71</v>
@@ -17727,13 +17742,13 @@
         <v>63</v>
       </c>
       <c r="G76">
-        <v>537143</v>
+        <v>454142</v>
       </c>
       <c r="H76" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="I76" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="J76" t="s">
         <v>3287</v>
@@ -17742,31 +17757,31 @@
         <v>3288</v>
       </c>
       <c r="L76" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="M76" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="N76" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="O76" t="s">
         <v>3189</v>
       </c>
       <c r="P76">
-        <v>3458591</v>
+        <v>197829</v>
       </c>
       <c r="Q76" t="s">
-        <v>657</v>
+        <v>2663</v>
       </c>
       <c r="R76" t="s">
-        <v>3328</v>
+        <v>1493</v>
       </c>
       <c r="S76" t="s">
         <v>86</v>
       </c>
       <c r="T76" t="s">
-        <v>661</v>
+        <v>3302</v>
       </c>
       <c r="U76" t="s">
         <v>71</v>
@@ -17792,13 +17807,13 @@
         <v>63</v>
       </c>
       <c r="G77">
-        <v>537143</v>
+        <v>454142</v>
       </c>
       <c r="H77" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="I77" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="J77" t="s">
         <v>3287</v>
@@ -17807,31 +17822,31 @@
         <v>3288</v>
       </c>
       <c r="L77" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="M77" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="N77" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="O77" t="s">
         <v>3189</v>
       </c>
       <c r="P77">
-        <v>30593</v>
+        <v>3847542</v>
       </c>
       <c r="Q77" t="s">
-        <v>108</v>
+        <v>819</v>
       </c>
       <c r="R77" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S77" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T77" t="s">
-        <v>111</v>
+        <v>1239</v>
       </c>
       <c r="U77" t="s">
         <v>71</v>
@@ -17857,13 +17872,13 @@
         <v>63</v>
       </c>
       <c r="G78">
-        <v>537090</v>
+        <v>454142</v>
       </c>
       <c r="H78" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="I78" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="J78" t="s">
         <v>3287</v>
@@ -17872,31 +17887,31 @@
         <v>3288</v>
       </c>
       <c r="L78" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="M78" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="N78" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O78" t="s">
         <v>3189</v>
       </c>
       <c r="P78">
-        <v>150218</v>
+        <v>190235</v>
       </c>
       <c r="Q78" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="R78" t="s">
         <v>1490</v>
       </c>
       <c r="S78" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T78" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="U78" t="s">
         <v>71</v>
@@ -17922,13 +17937,13 @@
         <v>63</v>
       </c>
       <c r="G79">
-        <v>537090</v>
+        <v>454142</v>
       </c>
       <c r="H79" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="I79" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="J79" t="s">
         <v>3287</v>
@@ -17937,31 +17952,31 @@
         <v>3288</v>
       </c>
       <c r="L79" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="M79" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="N79" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O79" t="s">
         <v>3189</v>
       </c>
       <c r="P79">
-        <v>30593</v>
+        <v>3642534</v>
       </c>
       <c r="Q79" t="s">
-        <v>108</v>
+        <v>1034</v>
       </c>
       <c r="R79" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S79" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T79" t="s">
-        <v>111</v>
+        <v>608</v>
       </c>
       <c r="U79" t="s">
         <v>71</v>
@@ -17987,10 +18002,10 @@
         <v>63</v>
       </c>
       <c r="G80">
-        <v>489776</v>
+        <v>454142</v>
       </c>
       <c r="H80" t="s">
-        <v>3307</v>
+        <v>3301</v>
       </c>
       <c r="I80" t="s">
         <v>3302</v>
@@ -18014,16 +18029,16 @@
         <v>3189</v>
       </c>
       <c r="P80">
-        <v>215341</v>
+        <v>195412</v>
       </c>
       <c r="Q80" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="R80" t="s">
         <v>1490</v>
       </c>
       <c r="S80" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T80" t="s">
         <v>3302</v>
@@ -18052,13 +18067,13 @@
         <v>63</v>
       </c>
       <c r="G81">
-        <v>489613</v>
+        <v>454142</v>
       </c>
       <c r="H81" t="s">
-        <v>3309</v>
+        <v>3301</v>
       </c>
       <c r="I81" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="J81" t="s">
         <v>3287</v>
@@ -18067,10 +18082,10 @@
         <v>3288</v>
       </c>
       <c r="L81" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="M81" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="N81" t="s">
         <v>3289</v>
@@ -18079,19 +18094,19 @@
         <v>3189</v>
       </c>
       <c r="P81">
-        <v>29528</v>
+        <v>3896296</v>
       </c>
       <c r="Q81" t="s">
-        <v>87</v>
+        <v>1225</v>
       </c>
       <c r="R81" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S81" t="s">
         <v>86</v>
       </c>
       <c r="T81" t="s">
-        <v>470</v>
+        <v>387</v>
       </c>
       <c r="U81" t="s">
         <v>71</v>
@@ -18117,13 +18132,13 @@
         <v>63</v>
       </c>
       <c r="G82">
-        <v>489613</v>
+        <v>454142</v>
       </c>
       <c r="H82" t="s">
-        <v>3309</v>
+        <v>3301</v>
       </c>
       <c r="I82" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="J82" t="s">
         <v>3287</v>
@@ -18132,10 +18147,10 @@
         <v>3288</v>
       </c>
       <c r="L82" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="M82" t="s">
-        <v>470</v>
+        <v>3302</v>
       </c>
       <c r="N82" t="s">
         <v>3289</v>
@@ -18144,10 +18159,10 @@
         <v>3189</v>
       </c>
       <c r="P82">
-        <v>3458587</v>
+        <v>1316168</v>
       </c>
       <c r="Q82" t="s">
-        <v>620</v>
+        <v>1268</v>
       </c>
       <c r="R82" t="s">
         <v>3328</v>
@@ -18156,7 +18171,7 @@
         <v>86</v>
       </c>
       <c r="T82" t="s">
-        <v>278</v>
+        <v>1239</v>
       </c>
       <c r="U82" t="s">
         <v>71</v>
@@ -18182,13 +18197,13 @@
         <v>63</v>
       </c>
       <c r="G83">
-        <v>489613</v>
+        <v>537143</v>
       </c>
       <c r="H83" t="s">
-        <v>3309</v>
+        <v>3303</v>
       </c>
       <c r="I83" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="J83" t="s">
         <v>3287</v>
@@ -18197,31 +18212,31 @@
         <v>3288</v>
       </c>
       <c r="L83" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="M83" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="N83" t="s">
-        <v>3289</v>
+        <v>3294</v>
       </c>
       <c r="O83" t="s">
         <v>3189</v>
       </c>
       <c r="P83">
-        <v>188295</v>
+        <v>29528</v>
       </c>
       <c r="Q83" t="s">
-        <v>2810</v>
+        <v>87</v>
       </c>
       <c r="R83" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="S83" t="s">
         <v>86</v>
       </c>
       <c r="T83" t="s">
-        <v>3337</v>
+        <v>111</v>
       </c>
       <c r="U83" t="s">
         <v>71</v>
@@ -18247,13 +18262,13 @@
         <v>63</v>
       </c>
       <c r="G84">
-        <v>489613</v>
+        <v>537143</v>
       </c>
       <c r="H84" t="s">
-        <v>3309</v>
+        <v>3303</v>
       </c>
       <c r="I84" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="J84" t="s">
         <v>3287</v>
@@ -18262,31 +18277,31 @@
         <v>3288</v>
       </c>
       <c r="L84" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="M84" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="N84" t="s">
-        <v>3289</v>
+        <v>3294</v>
       </c>
       <c r="O84" t="s">
         <v>3189</v>
       </c>
       <c r="P84">
-        <v>206496</v>
+        <v>3458591</v>
       </c>
       <c r="Q84" t="s">
-        <v>175</v>
+        <v>657</v>
       </c>
       <c r="R84" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S84" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T84" t="s">
-        <v>470</v>
+        <v>661</v>
       </c>
       <c r="U84" t="s">
         <v>71</v>
@@ -18312,13 +18327,13 @@
         <v>63</v>
       </c>
       <c r="G85">
-        <v>614502</v>
+        <v>537143</v>
       </c>
       <c r="H85" t="s">
-        <v>3310</v>
+        <v>3303</v>
       </c>
       <c r="I85" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J85" t="s">
         <v>3287</v>
@@ -18327,31 +18342,31 @@
         <v>3288</v>
       </c>
       <c r="L85" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M85" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="N85" t="s">
-        <v>3300</v>
+        <v>3294</v>
       </c>
       <c r="O85" t="s">
         <v>3189</v>
       </c>
       <c r="P85">
-        <v>3456893</v>
+        <v>30593</v>
       </c>
       <c r="Q85" t="s">
-        <v>262</v>
+        <v>108</v>
       </c>
       <c r="R85" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S85" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T85" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="U85" t="s">
         <v>71</v>
@@ -18377,13 +18392,13 @@
         <v>63</v>
       </c>
       <c r="G86">
-        <v>614502</v>
+        <v>537090</v>
       </c>
       <c r="H86" t="s">
-        <v>3310</v>
+        <v>3304</v>
       </c>
       <c r="I86" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J86" t="s">
         <v>3287</v>
@@ -18392,10 +18407,10 @@
         <v>3288</v>
       </c>
       <c r="L86" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M86" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="N86" t="s">
         <v>3300</v>
@@ -18404,10 +18419,10 @@
         <v>3189</v>
       </c>
       <c r="P86">
-        <v>29528</v>
+        <v>150218</v>
       </c>
       <c r="Q86" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="R86" t="s">
         <v>1490</v>
@@ -18416,7 +18431,7 @@
         <v>86</v>
       </c>
       <c r="T86" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="U86" t="s">
         <v>71</v>
@@ -18442,13 +18457,13 @@
         <v>63</v>
       </c>
       <c r="G87">
-        <v>614502</v>
+        <v>537090</v>
       </c>
       <c r="H87" t="s">
-        <v>3310</v>
+        <v>3304</v>
       </c>
       <c r="I87" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J87" t="s">
         <v>3287</v>
@@ -18457,10 +18472,10 @@
         <v>3288</v>
       </c>
       <c r="L87" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M87" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="N87" t="s">
         <v>3300</v>
@@ -18469,19 +18484,19 @@
         <v>3189</v>
       </c>
       <c r="P87">
-        <v>3788079</v>
+        <v>30593</v>
       </c>
       <c r="Q87" t="s">
-        <v>383</v>
+        <v>108</v>
       </c>
       <c r="R87" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S87" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T87" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="U87" t="s">
         <v>71</v>
@@ -18507,13 +18522,13 @@
         <v>63</v>
       </c>
       <c r="G88">
-        <v>614502</v>
+        <v>489776</v>
       </c>
       <c r="H88" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="I88" t="s">
-        <v>100</v>
+        <v>3302</v>
       </c>
       <c r="J88" t="s">
         <v>3287</v>
@@ -18522,31 +18537,31 @@
         <v>3288</v>
       </c>
       <c r="L88" t="s">
-        <v>100</v>
+        <v>3302</v>
       </c>
       <c r="M88" t="s">
-        <v>100</v>
+        <v>3302</v>
       </c>
       <c r="N88" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O88" t="s">
         <v>3189</v>
       </c>
       <c r="P88">
-        <v>3889869</v>
+        <v>215341</v>
       </c>
       <c r="Q88" t="s">
-        <v>495</v>
+        <v>156</v>
       </c>
       <c r="R88" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S88" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T88" t="s">
-        <v>260</v>
+        <v>3302</v>
       </c>
       <c r="U88" t="s">
         <v>71</v>
@@ -18572,13 +18587,13 @@
         <v>63</v>
       </c>
       <c r="G89">
-        <v>614502</v>
+        <v>489613</v>
       </c>
       <c r="H89" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="I89" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="J89" t="s">
         <v>3287</v>
@@ -18587,31 +18602,31 @@
         <v>3288</v>
       </c>
       <c r="L89" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="M89" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="N89" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O89" t="s">
         <v>3189</v>
       </c>
       <c r="P89">
-        <v>237618</v>
+        <v>29528</v>
       </c>
       <c r="Q89" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="R89" t="s">
         <v>1490</v>
       </c>
       <c r="S89" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T89" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="U89" t="s">
         <v>71</v>
@@ -18637,13 +18652,13 @@
         <v>63</v>
       </c>
       <c r="G90">
-        <v>614502</v>
+        <v>489613</v>
       </c>
       <c r="H90" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="I90" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="J90" t="s">
         <v>3287</v>
@@ -18652,22 +18667,22 @@
         <v>3288</v>
       </c>
       <c r="L90" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="M90" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="N90" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O90" t="s">
         <v>3189</v>
       </c>
       <c r="P90">
-        <v>3661879</v>
+        <v>3458587</v>
       </c>
       <c r="Q90" t="s">
-        <v>901</v>
+        <v>620</v>
       </c>
       <c r="R90" t="s">
         <v>3328</v>
@@ -18676,7 +18691,7 @@
         <v>86</v>
       </c>
       <c r="T90" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="U90" t="s">
         <v>71</v>
@@ -18702,13 +18717,13 @@
         <v>63</v>
       </c>
       <c r="G91">
-        <v>614502</v>
+        <v>489613</v>
       </c>
       <c r="H91" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="I91" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="J91" t="s">
         <v>3287</v>
@@ -18717,31 +18732,31 @@
         <v>3288</v>
       </c>
       <c r="L91" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="M91" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="N91" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O91" t="s">
         <v>3189</v>
       </c>
       <c r="P91">
-        <v>2542443</v>
+        <v>188295</v>
       </c>
       <c r="Q91" t="s">
-        <v>911</v>
+        <v>2810</v>
       </c>
       <c r="R91" t="s">
-        <v>3328</v>
+        <v>1493</v>
       </c>
       <c r="S91" t="s">
         <v>86</v>
       </c>
       <c r="T91" t="s">
-        <v>131</v>
+        <v>3339</v>
       </c>
       <c r="U91" t="s">
         <v>71</v>
@@ -18767,13 +18782,13 @@
         <v>63</v>
       </c>
       <c r="G92">
-        <v>614502</v>
+        <v>489613</v>
       </c>
       <c r="H92" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="I92" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="J92" t="s">
         <v>3287</v>
@@ -18782,31 +18797,31 @@
         <v>3288</v>
       </c>
       <c r="L92" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="M92" t="s">
-        <v>100</v>
+        <v>470</v>
       </c>
       <c r="N92" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O92" t="s">
         <v>3189</v>
       </c>
       <c r="P92">
-        <v>3961905</v>
+        <v>206496</v>
       </c>
       <c r="Q92" t="s">
-        <v>942</v>
+        <v>175</v>
       </c>
       <c r="R92" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S92" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T92" t="s">
-        <v>131</v>
+        <v>470</v>
       </c>
       <c r="U92" t="s">
         <v>71</v>
@@ -18859,10 +18874,10 @@
         <v>3189</v>
       </c>
       <c r="P93">
-        <v>3896291</v>
+        <v>3456893</v>
       </c>
       <c r="Q93" t="s">
-        <v>1039</v>
+        <v>262</v>
       </c>
       <c r="R93" t="s">
         <v>3328</v>
@@ -18924,19 +18939,19 @@
         <v>3189</v>
       </c>
       <c r="P94">
-        <v>3962092</v>
+        <v>29528</v>
       </c>
       <c r="Q94" t="s">
-        <v>1082</v>
+        <v>87</v>
       </c>
       <c r="R94" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S94" t="s">
         <v>86</v>
       </c>
       <c r="T94" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="U94" t="s">
         <v>71</v>
@@ -18989,13 +19004,13 @@
         <v>3189</v>
       </c>
       <c r="P95">
-        <v>218364</v>
+        <v>3788079</v>
       </c>
       <c r="Q95" t="s">
-        <v>1492</v>
+        <v>383</v>
       </c>
       <c r="R95" t="s">
-        <v>1493</v>
+        <v>3328</v>
       </c>
       <c r="S95" t="s">
         <v>86</v>
@@ -19054,10 +19069,10 @@
         <v>3189</v>
       </c>
       <c r="P96">
-        <v>3962108</v>
+        <v>3889869</v>
       </c>
       <c r="Q96" t="s">
-        <v>1373</v>
+        <v>495</v>
       </c>
       <c r="R96" t="s">
         <v>3328</v>
@@ -19119,16 +19134,16 @@
         <v>3189</v>
       </c>
       <c r="P97">
-        <v>206496</v>
+        <v>237618</v>
       </c>
       <c r="Q97" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="R97" t="s">
         <v>1490</v>
       </c>
       <c r="S97" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T97" t="s">
         <v>100</v>
@@ -19157,13 +19172,13 @@
         <v>63</v>
       </c>
       <c r="G98">
-        <v>537550</v>
+        <v>614502</v>
       </c>
       <c r="H98" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="I98" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J98" t="s">
         <v>3287</v>
@@ -19172,10 +19187,10 @@
         <v>3288</v>
       </c>
       <c r="L98" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M98" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N98" t="s">
         <v>3300</v>
@@ -19184,19 +19199,19 @@
         <v>3189</v>
       </c>
       <c r="P98">
-        <v>150218</v>
+        <v>3661879</v>
       </c>
       <c r="Q98" t="s">
-        <v>64</v>
+        <v>901</v>
       </c>
       <c r="R98" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S98" t="s">
         <v>86</v>
       </c>
       <c r="T98" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="U98" t="s">
         <v>71</v>
@@ -19222,13 +19237,13 @@
         <v>63</v>
       </c>
       <c r="G99">
-        <v>537550</v>
+        <v>614502</v>
       </c>
       <c r="H99" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="I99" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J99" t="s">
         <v>3287</v>
@@ -19237,10 +19252,10 @@
         <v>3288</v>
       </c>
       <c r="L99" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M99" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="N99" t="s">
         <v>3300</v>
@@ -19249,19 +19264,19 @@
         <v>3189</v>
       </c>
       <c r="P99">
-        <v>804089</v>
+        <v>2542443</v>
       </c>
       <c r="Q99" t="s">
-        <v>139</v>
+        <v>911</v>
       </c>
       <c r="R99" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S99" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T99" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="U99" t="s">
         <v>71</v>
@@ -19287,13 +19302,13 @@
         <v>63</v>
       </c>
       <c r="G100">
-        <v>454118</v>
+        <v>614502</v>
       </c>
       <c r="H100" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="I100" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="J100" t="s">
         <v>3287</v>
@@ -19302,10 +19317,10 @@
         <v>3288</v>
       </c>
       <c r="L100" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="M100" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="N100" t="s">
         <v>3300</v>
@@ -19314,19 +19329,19 @@
         <v>3189</v>
       </c>
       <c r="P100">
-        <v>197829</v>
+        <v>3961905</v>
       </c>
       <c r="Q100" t="s">
-        <v>2663</v>
+        <v>942</v>
       </c>
       <c r="R100" t="s">
-        <v>1493</v>
+        <v>3328</v>
       </c>
       <c r="S100" t="s">
         <v>86</v>
       </c>
       <c r="T100" t="s">
-        <v>3302</v>
+        <v>131</v>
       </c>
       <c r="U100" t="s">
         <v>71</v>
@@ -19352,13 +19367,13 @@
         <v>63</v>
       </c>
       <c r="G101">
-        <v>454118</v>
+        <v>614502</v>
       </c>
       <c r="H101" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="I101" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="J101" t="s">
         <v>3287</v>
@@ -19367,10 +19382,10 @@
         <v>3288</v>
       </c>
       <c r="L101" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="M101" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="N101" t="s">
         <v>3300</v>
@@ -19379,19 +19394,19 @@
         <v>3189</v>
       </c>
       <c r="P101">
-        <v>190235</v>
+        <v>3896291</v>
       </c>
       <c r="Q101" t="s">
-        <v>117</v>
+        <v>1039</v>
       </c>
       <c r="R101" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S101" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T101" t="s">
-        <v>3302</v>
+        <v>260</v>
       </c>
       <c r="U101" t="s">
         <v>71</v>
@@ -19417,13 +19432,13 @@
         <v>63</v>
       </c>
       <c r="G102">
-        <v>454118</v>
+        <v>614502</v>
       </c>
       <c r="H102" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="I102" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="J102" t="s">
         <v>3287</v>
@@ -19432,10 +19447,10 @@
         <v>3288</v>
       </c>
       <c r="L102" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="M102" t="s">
-        <v>3302</v>
+        <v>100</v>
       </c>
       <c r="N102" t="s">
         <v>3300</v>
@@ -19444,19 +19459,19 @@
         <v>3189</v>
       </c>
       <c r="P102">
-        <v>195412</v>
+        <v>3962092</v>
       </c>
       <c r="Q102" t="s">
-        <v>147</v>
+        <v>1082</v>
       </c>
       <c r="R102" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S102" t="s">
         <v>86</v>
       </c>
       <c r="T102" t="s">
-        <v>3302</v>
+        <v>260</v>
       </c>
       <c r="U102" t="s">
         <v>71</v>
@@ -19482,13 +19497,13 @@
         <v>63</v>
       </c>
       <c r="G103">
-        <v>489769</v>
+        <v>614502</v>
       </c>
       <c r="H103" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="I103" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="J103" t="s">
         <v>3287</v>
@@ -19497,10 +19512,10 @@
         <v>3288</v>
       </c>
       <c r="L103" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="M103" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="N103" t="s">
         <v>3300</v>
@@ -19509,10 +19524,10 @@
         <v>3189</v>
       </c>
       <c r="P103">
-        <v>197829</v>
+        <v>218364</v>
       </c>
       <c r="Q103" t="s">
-        <v>2663</v>
+        <v>1492</v>
       </c>
       <c r="R103" t="s">
         <v>1493</v>
@@ -19521,7 +19536,7 @@
         <v>86</v>
       </c>
       <c r="T103" t="s">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="U103" t="s">
         <v>71</v>
@@ -19547,13 +19562,13 @@
         <v>63</v>
       </c>
       <c r="G104">
-        <v>489769</v>
+        <v>614502</v>
       </c>
       <c r="H104" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="I104" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="J104" t="s">
         <v>3287</v>
@@ -19562,10 +19577,10 @@
         <v>3288</v>
       </c>
       <c r="L104" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="M104" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="N104" t="s">
         <v>3300</v>
@@ -19574,19 +19589,19 @@
         <v>3189</v>
       </c>
       <c r="P104">
-        <v>190235</v>
+        <v>3962108</v>
       </c>
       <c r="Q104" t="s">
-        <v>117</v>
+        <v>1373</v>
       </c>
       <c r="R104" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S104" t="s">
         <v>86</v>
       </c>
       <c r="T104" t="s">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="U104" t="s">
         <v>71</v>
@@ -19612,13 +19627,13 @@
         <v>63</v>
       </c>
       <c r="G105">
-        <v>489769</v>
+        <v>614502</v>
       </c>
       <c r="H105" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="I105" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="J105" t="s">
         <v>3287</v>
@@ -19627,10 +19642,10 @@
         <v>3288</v>
       </c>
       <c r="L105" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="M105" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="N105" t="s">
         <v>3300</v>
@@ -19639,19 +19654,19 @@
         <v>3189</v>
       </c>
       <c r="P105">
-        <v>533043</v>
+        <v>206496</v>
       </c>
       <c r="Q105" t="s">
-        <v>2866</v>
+        <v>175</v>
       </c>
       <c r="R105" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="S105" t="s">
         <v>86</v>
       </c>
       <c r="T105" t="s">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="U105" t="s">
         <v>71</v>
@@ -19677,13 +19692,13 @@
         <v>63</v>
       </c>
       <c r="G106">
-        <v>489769</v>
+        <v>537550</v>
       </c>
       <c r="H106" t="s">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="I106" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="J106" t="s">
         <v>3287</v>
@@ -19692,10 +19707,10 @@
         <v>3288</v>
       </c>
       <c r="L106" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="M106" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="N106" t="s">
         <v>3300</v>
@@ -19704,19 +19719,19 @@
         <v>3189</v>
       </c>
       <c r="P106">
-        <v>195412</v>
+        <v>150218</v>
       </c>
       <c r="Q106" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="R106" t="s">
         <v>1490</v>
       </c>
       <c r="S106" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T106" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="U106" t="s">
         <v>71</v>
@@ -19742,13 +19757,13 @@
         <v>63</v>
       </c>
       <c r="G107">
-        <v>647625</v>
+        <v>537550</v>
       </c>
       <c r="H107" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="I107" t="s">
-        <v>1506</v>
+        <v>111</v>
       </c>
       <c r="J107" t="s">
         <v>3287</v>
@@ -19757,10 +19772,10 @@
         <v>3288</v>
       </c>
       <c r="L107" t="s">
-        <v>1506</v>
+        <v>111</v>
       </c>
       <c r="M107" t="s">
-        <v>1506</v>
+        <v>111</v>
       </c>
       <c r="N107" t="s">
         <v>3300</v>
@@ -19769,10 +19784,10 @@
         <v>3189</v>
       </c>
       <c r="P107">
-        <v>150218</v>
+        <v>804089</v>
       </c>
       <c r="Q107" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="R107" t="s">
         <v>1490</v>
@@ -19781,7 +19796,7 @@
         <v>338</v>
       </c>
       <c r="T107" t="s">
-        <v>1506</v>
+        <v>111</v>
       </c>
       <c r="U107" t="s">
         <v>71</v>
@@ -19807,13 +19822,13 @@
         <v>63</v>
       </c>
       <c r="G108">
-        <v>647625</v>
+        <v>454118</v>
       </c>
       <c r="H108" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="I108" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="J108" t="s">
         <v>3287</v>
@@ -19822,10 +19837,10 @@
         <v>3288</v>
       </c>
       <c r="L108" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="M108" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="N108" t="s">
         <v>3300</v>
@@ -19834,19 +19849,19 @@
         <v>3189</v>
       </c>
       <c r="P108">
-        <v>29528</v>
+        <v>2468528</v>
       </c>
       <c r="Q108" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="R108" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S108" t="s">
         <v>86</v>
       </c>
       <c r="T108" t="s">
-        <v>1506</v>
+        <v>3340</v>
       </c>
       <c r="U108" t="s">
         <v>71</v>
@@ -19872,13 +19887,13 @@
         <v>63</v>
       </c>
       <c r="G109">
-        <v>647625</v>
+        <v>454118</v>
       </c>
       <c r="H109" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="I109" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="J109" t="s">
         <v>3287</v>
@@ -19887,10 +19902,10 @@
         <v>3288</v>
       </c>
       <c r="L109" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="M109" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="N109" t="s">
         <v>3300</v>
@@ -19899,19 +19914,19 @@
         <v>3189</v>
       </c>
       <c r="P109">
-        <v>61027</v>
+        <v>197829</v>
       </c>
       <c r="Q109" t="s">
-        <v>449</v>
+        <v>2663</v>
       </c>
       <c r="R109" t="s">
-        <v>3328</v>
+        <v>1493</v>
       </c>
       <c r="S109" t="s">
         <v>86</v>
       </c>
       <c r="T109" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="U109" t="s">
         <v>71</v>
@@ -19937,13 +19952,13 @@
         <v>63</v>
       </c>
       <c r="G110">
-        <v>647625</v>
+        <v>454118</v>
       </c>
       <c r="H110" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="I110" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="J110" t="s">
         <v>3287</v>
@@ -19952,10 +19967,10 @@
         <v>3288</v>
       </c>
       <c r="L110" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="M110" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="N110" t="s">
         <v>3300</v>
@@ -19964,10 +19979,10 @@
         <v>3189</v>
       </c>
       <c r="P110">
-        <v>1008071</v>
+        <v>3251097</v>
       </c>
       <c r="Q110" t="s">
-        <v>830</v>
+        <v>694</v>
       </c>
       <c r="R110" t="s">
         <v>3328</v>
@@ -19976,7 +19991,7 @@
         <v>86</v>
       </c>
       <c r="T110" t="s">
-        <v>1506</v>
+        <v>3341</v>
       </c>
       <c r="U110" t="s">
         <v>71</v>
@@ -20002,13 +20017,13 @@
         <v>63</v>
       </c>
       <c r="G111">
-        <v>647625</v>
+        <v>454118</v>
       </c>
       <c r="H111" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="I111" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="J111" t="s">
         <v>3287</v>
@@ -20017,10 +20032,10 @@
         <v>3288</v>
       </c>
       <c r="L111" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="M111" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="N111" t="s">
         <v>3300</v>
@@ -20029,10 +20044,10 @@
         <v>3189</v>
       </c>
       <c r="P111">
-        <v>420166</v>
+        <v>118380</v>
       </c>
       <c r="Q111" t="s">
-        <v>952</v>
+        <v>840</v>
       </c>
       <c r="R111" t="s">
         <v>3328</v>
@@ -20041,7 +20056,7 @@
         <v>86</v>
       </c>
       <c r="T111" t="s">
-        <v>1506</v>
+        <v>453</v>
       </c>
       <c r="U111" t="s">
         <v>71</v>
@@ -20067,13 +20082,13 @@
         <v>63</v>
       </c>
       <c r="G112">
-        <v>647625</v>
+        <v>454118</v>
       </c>
       <c r="H112" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="I112" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="J112" t="s">
         <v>3287</v>
@@ -20082,10 +20097,10 @@
         <v>3288</v>
       </c>
       <c r="L112" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="M112" t="s">
-        <v>1506</v>
+        <v>3302</v>
       </c>
       <c r="N112" t="s">
         <v>3300</v>
@@ -20094,19 +20109,19 @@
         <v>3189</v>
       </c>
       <c r="P112">
-        <v>804089</v>
+        <v>3251092</v>
       </c>
       <c r="Q112" t="s">
-        <v>139</v>
+        <v>891</v>
       </c>
       <c r="R112" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S112" t="s">
         <v>86</v>
       </c>
       <c r="T112" t="s">
-        <v>1506</v>
+        <v>3340</v>
       </c>
       <c r="U112" t="s">
         <v>71</v>
@@ -20132,13 +20147,13 @@
         <v>63</v>
       </c>
       <c r="G113">
-        <v>647766</v>
+        <v>454118</v>
       </c>
       <c r="H113" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="I113" t="s">
-        <v>2447</v>
+        <v>3302</v>
       </c>
       <c r="J113" t="s">
         <v>3287</v>
@@ -20147,10 +20162,10 @@
         <v>3288</v>
       </c>
       <c r="L113" t="s">
-        <v>2447</v>
+        <v>3302</v>
       </c>
       <c r="M113" t="s">
-        <v>2447</v>
+        <v>3302</v>
       </c>
       <c r="N113" t="s">
         <v>3300</v>
@@ -20159,19 +20174,19 @@
         <v>3189</v>
       </c>
       <c r="P113">
-        <v>215341</v>
+        <v>190235</v>
       </c>
       <c r="Q113" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="R113" t="s">
         <v>1490</v>
       </c>
       <c r="S113" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T113" t="s">
-        <v>2447</v>
+        <v>3302</v>
       </c>
       <c r="U113" t="s">
         <v>71</v>
@@ -20197,13 +20212,13 @@
         <v>63</v>
       </c>
       <c r="G114">
-        <v>647766</v>
+        <v>454118</v>
       </c>
       <c r="H114" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="I114" t="s">
-        <v>2447</v>
+        <v>3302</v>
       </c>
       <c r="J114" t="s">
         <v>3287</v>
@@ -20212,10 +20227,10 @@
         <v>3288</v>
       </c>
       <c r="L114" t="s">
-        <v>2447</v>
+        <v>3302</v>
       </c>
       <c r="M114" t="s">
-        <v>2447</v>
+        <v>3302</v>
       </c>
       <c r="N114" t="s">
         <v>3300</v>
@@ -20224,19 +20239,19 @@
         <v>3189</v>
       </c>
       <c r="P114">
-        <v>3895167</v>
+        <v>2456265</v>
       </c>
       <c r="Q114" t="s">
-        <v>2442</v>
+        <v>974</v>
       </c>
       <c r="R114" t="s">
-        <v>3332</v>
+        <v>3328</v>
       </c>
       <c r="S114" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T114" t="s">
-        <v>2447</v>
+        <v>3340</v>
       </c>
       <c r="U114" t="s">
         <v>71</v>
@@ -20262,13 +20277,13 @@
         <v>63</v>
       </c>
       <c r="G115">
-        <v>537549</v>
+        <v>454118</v>
       </c>
       <c r="H115" t="s">
-        <v>3316</v>
+        <v>3312</v>
       </c>
       <c r="I115" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="J115" t="s">
         <v>3287</v>
@@ -20277,31 +20292,31 @@
         <v>3288</v>
       </c>
       <c r="L115" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="M115" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="N115" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O115" t="s">
         <v>3189</v>
       </c>
       <c r="P115">
-        <v>150218</v>
+        <v>2468510</v>
       </c>
       <c r="Q115" t="s">
-        <v>64</v>
+        <v>1072</v>
       </c>
       <c r="R115" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S115" t="s">
         <v>86</v>
       </c>
       <c r="T115" t="s">
-        <v>111</v>
+        <v>3342</v>
       </c>
       <c r="U115" t="s">
         <v>71</v>
@@ -20327,13 +20342,13 @@
         <v>63</v>
       </c>
       <c r="G116">
-        <v>537549</v>
+        <v>454118</v>
       </c>
       <c r="H116" t="s">
-        <v>3316</v>
+        <v>3312</v>
       </c>
       <c r="I116" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="J116" t="s">
         <v>3287</v>
@@ -20342,31 +20357,31 @@
         <v>3288</v>
       </c>
       <c r="L116" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="M116" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="N116" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O116" t="s">
         <v>3189</v>
       </c>
       <c r="P116">
-        <v>804089</v>
+        <v>195412</v>
       </c>
       <c r="Q116" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="R116" t="s">
         <v>1490</v>
       </c>
       <c r="S116" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T116" t="s">
-        <v>111</v>
+        <v>3302</v>
       </c>
       <c r="U116" t="s">
         <v>71</v>
@@ -20392,13 +20407,13 @@
         <v>63</v>
       </c>
       <c r="G117">
-        <v>647741</v>
+        <v>489769</v>
       </c>
       <c r="H117" t="s">
-        <v>3317</v>
+        <v>3313</v>
       </c>
       <c r="I117" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="J117" t="s">
         <v>3287</v>
@@ -20407,31 +20422,31 @@
         <v>3288</v>
       </c>
       <c r="L117" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="M117" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="N117" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O117" t="s">
         <v>3189</v>
       </c>
       <c r="P117">
-        <v>190235</v>
+        <v>197829</v>
       </c>
       <c r="Q117" t="s">
-        <v>117</v>
+        <v>2663</v>
       </c>
       <c r="R117" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="S117" t="s">
         <v>86</v>
       </c>
       <c r="T117" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="U117" t="s">
         <v>71</v>
@@ -20457,13 +20472,13 @@
         <v>63</v>
       </c>
       <c r="G118">
-        <v>647741</v>
+        <v>489769</v>
       </c>
       <c r="H118" t="s">
-        <v>3317</v>
+        <v>3313</v>
       </c>
       <c r="I118" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="J118" t="s">
         <v>3287</v>
@@ -20472,31 +20487,31 @@
         <v>3288</v>
       </c>
       <c r="L118" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="M118" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="N118" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O118" t="s">
         <v>3189</v>
       </c>
       <c r="P118">
-        <v>3895168</v>
+        <v>190235</v>
       </c>
       <c r="Q118" t="s">
-        <v>2431</v>
+        <v>117</v>
       </c>
       <c r="R118" t="s">
-        <v>3332</v>
+        <v>1490</v>
       </c>
       <c r="S118" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T118" t="s">
-        <v>2447</v>
+        <v>470</v>
       </c>
       <c r="U118" t="s">
         <v>71</v>
@@ -20522,13 +20537,13 @@
         <v>63</v>
       </c>
       <c r="G119">
-        <v>378504</v>
+        <v>489769</v>
       </c>
       <c r="H119" t="s">
-        <v>3318</v>
+        <v>3313</v>
       </c>
       <c r="I119" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="J119" t="s">
         <v>3287</v>
@@ -20537,31 +20552,31 @@
         <v>3288</v>
       </c>
       <c r="L119" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="M119" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="N119" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O119" t="s">
         <v>3189</v>
       </c>
       <c r="P119">
-        <v>29528</v>
+        <v>533043</v>
       </c>
       <c r="Q119" t="s">
-        <v>87</v>
+        <v>2866</v>
       </c>
       <c r="R119" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="S119" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="T119" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="U119" t="s">
         <v>71</v>
@@ -20587,13 +20602,13 @@
         <v>63</v>
       </c>
       <c r="G120">
-        <v>378504</v>
+        <v>489769</v>
       </c>
       <c r="H120" t="s">
-        <v>3318</v>
+        <v>3313</v>
       </c>
       <c r="I120" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="J120" t="s">
         <v>3287</v>
@@ -20602,31 +20617,31 @@
         <v>3288</v>
       </c>
       <c r="L120" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="M120" t="s">
-        <v>3298</v>
+        <v>470</v>
       </c>
       <c r="N120" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O120" t="s">
         <v>3189</v>
       </c>
       <c r="P120">
-        <v>198423</v>
+        <v>195412</v>
       </c>
       <c r="Q120" t="s">
-        <v>2586</v>
+        <v>147</v>
       </c>
       <c r="R120" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="S120" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T120" t="s">
-        <v>990</v>
+        <v>470</v>
       </c>
       <c r="U120" t="s">
         <v>71</v>
@@ -20652,13 +20667,13 @@
         <v>63</v>
       </c>
       <c r="G121">
-        <v>378504</v>
+        <v>647625</v>
       </c>
       <c r="H121" t="s">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="I121" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="J121" t="s">
         <v>3287</v>
@@ -20667,31 +20682,31 @@
         <v>3288</v>
       </c>
       <c r="L121" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="M121" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="N121" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O121" t="s">
         <v>3189</v>
       </c>
       <c r="P121">
-        <v>3058509</v>
+        <v>150218</v>
       </c>
       <c r="Q121" t="s">
-        <v>778</v>
+        <v>64</v>
       </c>
       <c r="R121" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S121" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T121" t="s">
-        <v>404</v>
+        <v>1506</v>
       </c>
       <c r="U121" t="s">
         <v>71</v>
@@ -20717,13 +20732,13 @@
         <v>63</v>
       </c>
       <c r="G122">
-        <v>378504</v>
+        <v>647625</v>
       </c>
       <c r="H122" t="s">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="I122" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="J122" t="s">
         <v>3287</v>
@@ -20732,31 +20747,31 @@
         <v>3288</v>
       </c>
       <c r="L122" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="M122" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="N122" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O122" t="s">
         <v>3189</v>
       </c>
       <c r="P122">
-        <v>4005456</v>
+        <v>29528</v>
       </c>
       <c r="Q122" t="s">
-        <v>799</v>
+        <v>87</v>
       </c>
       <c r="R122" t="s">
-        <v>3328</v>
+        <v>1490</v>
       </c>
       <c r="S122" t="s">
         <v>86</v>
       </c>
       <c r="T122" t="s">
-        <v>3338</v>
+        <v>1506</v>
       </c>
       <c r="U122" t="s">
         <v>71</v>
@@ -20782,13 +20797,13 @@
         <v>63</v>
       </c>
       <c r="G123">
-        <v>378504</v>
+        <v>647625</v>
       </c>
       <c r="H123" t="s">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="I123" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="J123" t="s">
         <v>3287</v>
@@ -20797,31 +20812,31 @@
         <v>3288</v>
       </c>
       <c r="L123" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="M123" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="N123" t="s">
-        <v>3289</v>
+        <v>3300</v>
       </c>
       <c r="O123" t="s">
         <v>3189</v>
       </c>
       <c r="P123">
-        <v>206496</v>
+        <v>61027</v>
       </c>
       <c r="Q123" t="s">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="R123" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S123" t="s">
         <v>86</v>
       </c>
       <c r="T123" t="s">
-        <v>3298</v>
+        <v>1506</v>
       </c>
       <c r="U123" t="s">
         <v>71</v>
@@ -20847,13 +20862,13 @@
         <v>63</v>
       </c>
       <c r="G124">
-        <v>648663</v>
+        <v>647625</v>
       </c>
       <c r="H124" t="s">
-        <v>3319</v>
+        <v>3314</v>
       </c>
       <c r="I124" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="J124" t="s">
         <v>3287</v>
@@ -20862,10 +20877,10 @@
         <v>3288</v>
       </c>
       <c r="L124" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="M124" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="N124" t="s">
         <v>3300</v>
@@ -20874,19 +20889,19 @@
         <v>3189</v>
       </c>
       <c r="P124">
-        <v>150218</v>
+        <v>1008071</v>
       </c>
       <c r="Q124" t="s">
-        <v>64</v>
+        <v>830</v>
       </c>
       <c r="R124" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S124" t="s">
         <v>86</v>
       </c>
       <c r="T124" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="U124" t="s">
         <v>71</v>
@@ -20912,13 +20927,13 @@
         <v>63</v>
       </c>
       <c r="G125">
-        <v>648663</v>
+        <v>647625</v>
       </c>
       <c r="H125" t="s">
-        <v>3319</v>
+        <v>3314</v>
       </c>
       <c r="I125" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="J125" t="s">
         <v>3287</v>
@@ -20927,10 +20942,10 @@
         <v>3288</v>
       </c>
       <c r="L125" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="M125" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="N125" t="s">
         <v>3300</v>
@@ -20939,19 +20954,19 @@
         <v>3189</v>
       </c>
       <c r="P125">
-        <v>29528</v>
+        <v>420166</v>
       </c>
       <c r="Q125" t="s">
-        <v>87</v>
+        <v>952</v>
       </c>
       <c r="R125" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S125" t="s">
         <v>86</v>
       </c>
       <c r="T125" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="U125" t="s">
         <v>71</v>
@@ -20977,13 +20992,13 @@
         <v>63</v>
       </c>
       <c r="G126">
-        <v>648663</v>
+        <v>647625</v>
       </c>
       <c r="H126" t="s">
-        <v>3319</v>
+        <v>3314</v>
       </c>
       <c r="I126" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="J126" t="s">
         <v>3287</v>
@@ -20992,10 +21007,10 @@
         <v>3288</v>
       </c>
       <c r="L126" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="M126" t="s">
-        <v>3292</v>
+        <v>1506</v>
       </c>
       <c r="N126" t="s">
         <v>3300</v>
@@ -21004,10 +21019,10 @@
         <v>3189</v>
       </c>
       <c r="P126">
-        <v>237618</v>
+        <v>804089</v>
       </c>
       <c r="Q126" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="R126" t="s">
         <v>1490</v>
@@ -21016,7 +21031,7 @@
         <v>86</v>
       </c>
       <c r="T126" t="s">
-        <v>100</v>
+        <v>1506</v>
       </c>
       <c r="U126" t="s">
         <v>71</v>
@@ -21042,13 +21057,13 @@
         <v>63</v>
       </c>
       <c r="G127">
-        <v>648663</v>
+        <v>647766</v>
       </c>
       <c r="H127" t="s">
-        <v>3319</v>
+        <v>3315</v>
       </c>
       <c r="I127" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="J127" t="s">
         <v>3287</v>
@@ -21057,10 +21072,10 @@
         <v>3288</v>
       </c>
       <c r="L127" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="M127" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="N127" t="s">
         <v>3300</v>
@@ -21069,10 +21084,10 @@
         <v>3189</v>
       </c>
       <c r="P127">
-        <v>30593</v>
+        <v>215341</v>
       </c>
       <c r="Q127" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="R127" t="s">
         <v>1490</v>
@@ -21081,7 +21096,7 @@
         <v>86</v>
       </c>
       <c r="T127" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="U127" t="s">
         <v>71</v>
@@ -21107,13 +21122,13 @@
         <v>63</v>
       </c>
       <c r="G128">
-        <v>648663</v>
+        <v>647766</v>
       </c>
       <c r="H128" t="s">
-        <v>3319</v>
+        <v>3315</v>
       </c>
       <c r="I128" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="J128" t="s">
         <v>3287</v>
@@ -21122,10 +21137,10 @@
         <v>3288</v>
       </c>
       <c r="L128" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="M128" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="N128" t="s">
         <v>3300</v>
@@ -21134,19 +21149,19 @@
         <v>3189</v>
       </c>
       <c r="P128">
-        <v>804089</v>
+        <v>3895167</v>
       </c>
       <c r="Q128" t="s">
-        <v>139</v>
+        <v>2442</v>
       </c>
       <c r="R128" t="s">
-        <v>1490</v>
+        <v>3332</v>
       </c>
       <c r="S128" t="s">
         <v>338</v>
       </c>
       <c r="T128" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="U128" t="s">
         <v>71</v>
@@ -21172,13 +21187,13 @@
         <v>63</v>
       </c>
       <c r="G129">
-        <v>648663</v>
+        <v>537549</v>
       </c>
       <c r="H129" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="I129" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="J129" t="s">
         <v>3287</v>
@@ -21187,22 +21202,22 @@
         <v>3288</v>
       </c>
       <c r="L129" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="M129" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="N129" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O129" t="s">
         <v>3189</v>
       </c>
       <c r="P129">
-        <v>195412</v>
+        <v>150218</v>
       </c>
       <c r="Q129" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="R129" t="s">
         <v>1490</v>
@@ -21211,7 +21226,7 @@
         <v>86</v>
       </c>
       <c r="T129" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="U129" t="s">
         <v>71</v>
@@ -21237,13 +21252,13 @@
         <v>63</v>
       </c>
       <c r="G130">
-        <v>648663</v>
+        <v>537549</v>
       </c>
       <c r="H130" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="I130" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="J130" t="s">
         <v>3287</v>
@@ -21252,31 +21267,31 @@
         <v>3288</v>
       </c>
       <c r="L130" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="M130" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="N130" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O130" t="s">
         <v>3189</v>
       </c>
       <c r="P130">
-        <v>215341</v>
+        <v>804089</v>
       </c>
       <c r="Q130" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="R130" t="s">
         <v>1490</v>
       </c>
       <c r="S130" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T130" t="s">
-        <v>3292</v>
+        <v>111</v>
       </c>
       <c r="U130" t="s">
         <v>71</v>
@@ -21302,13 +21317,13 @@
         <v>63</v>
       </c>
       <c r="G131">
-        <v>648663</v>
+        <v>647741</v>
       </c>
       <c r="H131" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="I131" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="J131" t="s">
         <v>3287</v>
@@ -21317,22 +21332,22 @@
         <v>3288</v>
       </c>
       <c r="L131" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="M131" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="N131" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O131" t="s">
         <v>3189</v>
       </c>
       <c r="P131">
-        <v>215558</v>
+        <v>190235</v>
       </c>
       <c r="Q131" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="R131" t="s">
         <v>1490</v>
@@ -21341,7 +21356,7 @@
         <v>86</v>
       </c>
       <c r="T131" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="U131" t="s">
         <v>71</v>
@@ -21367,13 +21382,13 @@
         <v>63</v>
       </c>
       <c r="G132">
-        <v>648663</v>
+        <v>647741</v>
       </c>
       <c r="H132" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="I132" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="J132" t="s">
         <v>3287</v>
@@ -21382,31 +21397,31 @@
         <v>3288</v>
       </c>
       <c r="L132" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="M132" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="N132" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O132" t="s">
         <v>3189</v>
       </c>
       <c r="P132">
-        <v>206496</v>
+        <v>3895168</v>
       </c>
       <c r="Q132" t="s">
-        <v>175</v>
+        <v>2431</v>
       </c>
       <c r="R132" t="s">
-        <v>1490</v>
+        <v>3332</v>
       </c>
       <c r="S132" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="T132" t="s">
-        <v>3292</v>
+        <v>2447</v>
       </c>
       <c r="U132" t="s">
         <v>71</v>
@@ -21432,13 +21447,13 @@
         <v>63</v>
       </c>
       <c r="G133">
-        <v>489595</v>
+        <v>378504</v>
       </c>
       <c r="H133" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="I133" t="s">
-        <v>470</v>
+        <v>3298</v>
       </c>
       <c r="J133" t="s">
         <v>3287</v>
@@ -21447,22 +21462,22 @@
         <v>3288</v>
       </c>
       <c r="L133" t="s">
-        <v>470</v>
+        <v>3298</v>
       </c>
       <c r="M133" t="s">
-        <v>470</v>
+        <v>3298</v>
       </c>
       <c r="N133" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O133" t="s">
         <v>3189</v>
       </c>
       <c r="P133">
-        <v>206496</v>
+        <v>29528</v>
       </c>
       <c r="Q133" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="R133" t="s">
         <v>1490</v>
@@ -21471,7 +21486,7 @@
         <v>338</v>
       </c>
       <c r="T133" t="s">
-        <v>470</v>
+        <v>3298</v>
       </c>
       <c r="U133" t="s">
         <v>71</v>
@@ -21497,13 +21512,13 @@
         <v>63</v>
       </c>
       <c r="G134">
-        <v>489618</v>
+        <v>378504</v>
       </c>
       <c r="H134" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="I134" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="J134" t="s">
         <v>3287</v>
@@ -21512,31 +21527,31 @@
         <v>3288</v>
       </c>
       <c r="L134" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="M134" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="N134" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O134" t="s">
         <v>3189</v>
       </c>
       <c r="P134">
-        <v>3458604</v>
+        <v>198423</v>
       </c>
       <c r="Q134" t="s">
-        <v>1944</v>
+        <v>2586</v>
       </c>
       <c r="R134" t="s">
-        <v>3330</v>
+        <v>1493</v>
       </c>
       <c r="S134" t="s">
         <v>86</v>
       </c>
       <c r="T134" t="s">
-        <v>3339</v>
+        <v>990</v>
       </c>
       <c r="U134" t="s">
         <v>71</v>
@@ -21562,13 +21577,13 @@
         <v>63</v>
       </c>
       <c r="G135">
-        <v>489618</v>
+        <v>378504</v>
       </c>
       <c r="H135" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="I135" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="J135" t="s">
         <v>3287</v>
@@ -21577,31 +21592,31 @@
         <v>3288</v>
       </c>
       <c r="L135" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="M135" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="N135" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O135" t="s">
         <v>3189</v>
       </c>
       <c r="P135">
-        <v>190235</v>
+        <v>3058509</v>
       </c>
       <c r="Q135" t="s">
-        <v>117</v>
+        <v>778</v>
       </c>
       <c r="R135" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S135" t="s">
         <v>86</v>
       </c>
       <c r="T135" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="U135" t="s">
         <v>71</v>
@@ -21627,13 +21642,13 @@
         <v>63</v>
       </c>
       <c r="G136">
-        <v>489618</v>
+        <v>378504</v>
       </c>
       <c r="H136" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="I136" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="J136" t="s">
         <v>3287</v>
@@ -21642,31 +21657,31 @@
         <v>3288</v>
       </c>
       <c r="L136" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="M136" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="N136" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O136" t="s">
         <v>3189</v>
       </c>
       <c r="P136">
-        <v>195412</v>
+        <v>4005456</v>
       </c>
       <c r="Q136" t="s">
-        <v>147</v>
+        <v>799</v>
       </c>
       <c r="R136" t="s">
-        <v>1490</v>
+        <v>3328</v>
       </c>
       <c r="S136" t="s">
         <v>86</v>
       </c>
       <c r="T136" t="s">
-        <v>284</v>
+        <v>3343</v>
       </c>
       <c r="U136" t="s">
         <v>71</v>
@@ -21692,13 +21707,13 @@
         <v>63</v>
       </c>
       <c r="G137">
-        <v>489618</v>
+        <v>378504</v>
       </c>
       <c r="H137" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="I137" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="J137" t="s">
         <v>3287</v>
@@ -21707,33 +21722,943 @@
         <v>3288</v>
       </c>
       <c r="L137" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="M137" t="s">
-        <v>284</v>
+        <v>3298</v>
       </c>
       <c r="N137" t="s">
-        <v>3300</v>
+        <v>3289</v>
       </c>
       <c r="O137" t="s">
         <v>3189</v>
       </c>
       <c r="P137">
-        <v>215558</v>
+        <v>206496</v>
       </c>
       <c r="Q137" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="R137" t="s">
         <v>1490</v>
       </c>
       <c r="S137" t="s">
+        <v>86</v>
+      </c>
+      <c r="T137" t="s">
+        <v>3298</v>
+      </c>
+      <c r="U137" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>204340</v>
+      </c>
+      <c r="B138" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E138" t="s">
+        <v>62</v>
+      </c>
+      <c r="F138" t="s">
+        <v>63</v>
+      </c>
+      <c r="G138">
+        <v>648663</v>
+      </c>
+      <c r="H138" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I138" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J138" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K138" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L138" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M138" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N138" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O138" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P138">
+        <v>150218</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>64</v>
+      </c>
+      <c r="R138" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S138" t="s">
+        <v>86</v>
+      </c>
+      <c r="T138" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U138" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>204340</v>
+      </c>
+      <c r="B139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E139" t="s">
+        <v>62</v>
+      </c>
+      <c r="F139" t="s">
+        <v>63</v>
+      </c>
+      <c r="G139">
+        <v>648663</v>
+      </c>
+      <c r="H139" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I139" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J139" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K139" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L139" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M139" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N139" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O139" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P139">
+        <v>29528</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>87</v>
+      </c>
+      <c r="R139" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S139" t="s">
+        <v>86</v>
+      </c>
+      <c r="T139" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U139" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>204340</v>
+      </c>
+      <c r="B140" t="s">
+        <v>59</v>
+      </c>
+      <c r="C140" t="s">
+        <v>60</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E140" t="s">
+        <v>62</v>
+      </c>
+      <c r="F140" t="s">
+        <v>63</v>
+      </c>
+      <c r="G140">
+        <v>648663</v>
+      </c>
+      <c r="H140" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I140" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J140" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K140" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L140" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M140" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N140" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O140" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P140">
+        <v>237618</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>97</v>
+      </c>
+      <c r="R140" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S140" t="s">
+        <v>86</v>
+      </c>
+      <c r="T140" t="s">
+        <v>100</v>
+      </c>
+      <c r="U140" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>204340</v>
+      </c>
+      <c r="B141" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" t="s">
+        <v>60</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E141" t="s">
+        <v>62</v>
+      </c>
+      <c r="F141" t="s">
+        <v>63</v>
+      </c>
+      <c r="G141">
+        <v>648663</v>
+      </c>
+      <c r="H141" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I141" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J141" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K141" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L141" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M141" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N141" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O141" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P141">
+        <v>30593</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>108</v>
+      </c>
+      <c r="R141" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S141" t="s">
+        <v>86</v>
+      </c>
+      <c r="T141" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U141" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>204340</v>
+      </c>
+      <c r="B142" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E142" t="s">
+        <v>62</v>
+      </c>
+      <c r="F142" t="s">
+        <v>63</v>
+      </c>
+      <c r="G142">
+        <v>648663</v>
+      </c>
+      <c r="H142" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I142" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J142" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K142" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L142" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M142" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N142" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O142" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P142">
+        <v>804089</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>139</v>
+      </c>
+      <c r="R142" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S142" t="s">
         <v>338</v>
       </c>
-      <c r="T137" t="s">
+      <c r="T142" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U142" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>204340</v>
+      </c>
+      <c r="B143" t="s">
+        <v>59</v>
+      </c>
+      <c r="C143" t="s">
+        <v>60</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E143" t="s">
+        <v>62</v>
+      </c>
+      <c r="F143" t="s">
+        <v>63</v>
+      </c>
+      <c r="G143">
+        <v>648663</v>
+      </c>
+      <c r="H143" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I143" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J143" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K143" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L143" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M143" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N143" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O143" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P143">
+        <v>195412</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>147</v>
+      </c>
+      <c r="R143" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S143" t="s">
+        <v>86</v>
+      </c>
+      <c r="T143" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U143" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>204340</v>
+      </c>
+      <c r="B144" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" t="s">
+        <v>60</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E144" t="s">
+        <v>62</v>
+      </c>
+      <c r="F144" t="s">
+        <v>63</v>
+      </c>
+      <c r="G144">
+        <v>648663</v>
+      </c>
+      <c r="H144" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I144" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J144" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K144" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L144" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M144" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N144" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O144" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P144">
+        <v>215341</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>156</v>
+      </c>
+      <c r="R144" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S144" t="s">
+        <v>86</v>
+      </c>
+      <c r="T144" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U144" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>204340</v>
+      </c>
+      <c r="B145" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" t="s">
+        <v>60</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E145" t="s">
+        <v>62</v>
+      </c>
+      <c r="F145" t="s">
+        <v>63</v>
+      </c>
+      <c r="G145">
+        <v>648663</v>
+      </c>
+      <c r="H145" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I145" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J145" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K145" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L145" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M145" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N145" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O145" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P145">
+        <v>215558</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>164</v>
+      </c>
+      <c r="R145" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S145" t="s">
+        <v>86</v>
+      </c>
+      <c r="T145" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U145" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>204340</v>
+      </c>
+      <c r="B146" t="s">
+        <v>59</v>
+      </c>
+      <c r="C146" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E146" t="s">
+        <v>62</v>
+      </c>
+      <c r="F146" t="s">
+        <v>63</v>
+      </c>
+      <c r="G146">
+        <v>648663</v>
+      </c>
+      <c r="H146" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I146" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J146" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K146" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L146" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M146" t="s">
+        <v>3292</v>
+      </c>
+      <c r="N146" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O146" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P146">
+        <v>206496</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>175</v>
+      </c>
+      <c r="R146" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S146" t="s">
+        <v>86</v>
+      </c>
+      <c r="T146" t="s">
+        <v>3292</v>
+      </c>
+      <c r="U146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>204340</v>
+      </c>
+      <c r="B147" t="s">
+        <v>59</v>
+      </c>
+      <c r="C147" t="s">
+        <v>60</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E147" t="s">
+        <v>62</v>
+      </c>
+      <c r="F147" t="s">
+        <v>63</v>
+      </c>
+      <c r="G147">
+        <v>489595</v>
+      </c>
+      <c r="H147" t="s">
+        <v>3320</v>
+      </c>
+      <c r="I147" t="s">
+        <v>470</v>
+      </c>
+      <c r="J147" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K147" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L147" t="s">
+        <v>470</v>
+      </c>
+      <c r="M147" t="s">
+        <v>470</v>
+      </c>
+      <c r="N147" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O147" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P147">
+        <v>206496</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>175</v>
+      </c>
+      <c r="R147" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S147" t="s">
+        <v>338</v>
+      </c>
+      <c r="T147" t="s">
+        <v>470</v>
+      </c>
+      <c r="U147" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>204340</v>
+      </c>
+      <c r="B148" t="s">
+        <v>59</v>
+      </c>
+      <c r="C148" t="s">
+        <v>60</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E148" t="s">
+        <v>62</v>
+      </c>
+      <c r="F148" t="s">
+        <v>63</v>
+      </c>
+      <c r="G148">
+        <v>489618</v>
+      </c>
+      <c r="H148" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I148" t="s">
+        <v>284</v>
+      </c>
+      <c r="J148" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K148" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L148" t="s">
+        <v>284</v>
+      </c>
+      <c r="M148" t="s">
+        <v>284</v>
+      </c>
+      <c r="N148" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O148" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P148">
+        <v>3458604</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>1944</v>
+      </c>
+      <c r="R148" t="s">
+        <v>3330</v>
+      </c>
+      <c r="S148" t="s">
+        <v>86</v>
+      </c>
+      <c r="T148" t="s">
+        <v>3344</v>
+      </c>
+      <c r="U148" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>204340</v>
+      </c>
+      <c r="B149" t="s">
+        <v>59</v>
+      </c>
+      <c r="C149" t="s">
+        <v>60</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E149" t="s">
+        <v>62</v>
+      </c>
+      <c r="F149" t="s">
+        <v>63</v>
+      </c>
+      <c r="G149">
+        <v>489618</v>
+      </c>
+      <c r="H149" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I149" t="s">
+        <v>284</v>
+      </c>
+      <c r="J149" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K149" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L149" t="s">
+        <v>284</v>
+      </c>
+      <c r="M149" t="s">
+        <v>284</v>
+      </c>
+      <c r="N149" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O149" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P149">
+        <v>190235</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>117</v>
+      </c>
+      <c r="R149" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S149" t="s">
+        <v>86</v>
+      </c>
+      <c r="T149" t="s">
+        <v>284</v>
+      </c>
+      <c r="U149" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>204340</v>
+      </c>
+      <c r="B150" t="s">
+        <v>59</v>
+      </c>
+      <c r="C150" t="s">
+        <v>60</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E150" t="s">
+        <v>62</v>
+      </c>
+      <c r="F150" t="s">
+        <v>63</v>
+      </c>
+      <c r="G150">
+        <v>489618</v>
+      </c>
+      <c r="H150" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I150" t="s">
+        <v>284</v>
+      </c>
+      <c r="J150" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K150" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L150" t="s">
+        <v>284</v>
+      </c>
+      <c r="M150" t="s">
+        <v>284</v>
+      </c>
+      <c r="N150" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O150" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P150">
+        <v>195412</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>147</v>
+      </c>
+      <c r="R150" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S150" t="s">
+        <v>86</v>
+      </c>
+      <c r="T150" t="s">
+        <v>284</v>
+      </c>
+      <c r="U150" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>204340</v>
+      </c>
+      <c r="B151" t="s">
+        <v>59</v>
+      </c>
+      <c r="C151" t="s">
+        <v>60</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E151" t="s">
+        <v>62</v>
+      </c>
+      <c r="F151" t="s">
+        <v>63</v>
+      </c>
+      <c r="G151">
+        <v>489618</v>
+      </c>
+      <c r="H151" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I151" t="s">
+        <v>284</v>
+      </c>
+      <c r="J151" t="s">
+        <v>3287</v>
+      </c>
+      <c r="K151" t="s">
+        <v>3288</v>
+      </c>
+      <c r="L151" t="s">
+        <v>284</v>
+      </c>
+      <c r="M151" t="s">
+        <v>284</v>
+      </c>
+      <c r="N151" t="s">
+        <v>3300</v>
+      </c>
+      <c r="O151" t="s">
+        <v>3189</v>
+      </c>
+      <c r="P151">
+        <v>215558</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>164</v>
+      </c>
+      <c r="R151" t="s">
+        <v>1490</v>
+      </c>
+      <c r="S151" t="s">
+        <v>338</v>
+      </c>
+      <c r="T151" t="s">
         <v>167</v>
       </c>
-      <c r="U137" t="s">
+      <c r="U151" t="s">
         <v>71</v>
       </c>
     </row>
@@ -21797,25 +22722,25 @@
         <v>3183</v>
       </c>
       <c r="P1" t="s">
-        <v>3340</v>
+        <v>3345</v>
       </c>
       <c r="Q1" t="s">
-        <v>3341</v>
+        <v>3346</v>
       </c>
       <c r="R1" t="s">
-        <v>3342</v>
+        <v>3347</v>
       </c>
       <c r="S1" t="s">
-        <v>3343</v>
+        <v>3348</v>
       </c>
       <c r="T1" t="s">
-        <v>3344</v>
+        <v>3349</v>
       </c>
       <c r="U1" t="s">
-        <v>3345</v>
+        <v>3350</v>
       </c>
       <c r="V1" t="s">
-        <v>3346</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -21865,16 +22790,16 @@
         <v>3189</v>
       </c>
       <c r="P2" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q2" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R2" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S2" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T2" t="s">
         <v>86</v>
@@ -21933,16 +22858,16 @@
         <v>3189</v>
       </c>
       <c r="P3" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q3" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R3" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S3" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T3" t="s">
         <v>86</v>
@@ -22001,16 +22926,16 @@
         <v>3189</v>
       </c>
       <c r="P4" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q4" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R4" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S4" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T4" t="s">
         <v>86</v>
@@ -22069,22 +22994,22 @@
         <v>3189</v>
       </c>
       <c r="P5" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="Q5" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="R5" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S5" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T5" t="s">
         <v>86</v>
       </c>
       <c r="U5" t="s">
-        <v>3339</v>
+        <v>3344</v>
       </c>
       <c r="V5" t="s">
         <v>71</v>
@@ -22137,16 +23062,16 @@
         <v>3189</v>
       </c>
       <c r="P6" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="Q6" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R6" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S6" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T6" t="s">
         <v>86</v>
@@ -22205,16 +23130,16 @@
         <v>3189</v>
       </c>
       <c r="P7" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="Q7" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="R7" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S7" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T7" t="s">
         <v>86</v>
@@ -22273,16 +23198,16 @@
         <v>3189</v>
       </c>
       <c r="P8" t="s">
+        <v>3359</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>3357</v>
+      </c>
+      <c r="R8" t="s">
         <v>3354</v>
       </c>
-      <c r="Q8" t="s">
-        <v>3352</v>
-      </c>
-      <c r="R8" t="s">
-        <v>3349</v>
-      </c>
       <c r="S8" t="s">
-        <v>3355</v>
+        <v>3360</v>
       </c>
       <c r="T8" t="s">
         <v>86</v>
@@ -22341,16 +23266,16 @@
         <v>3189</v>
       </c>
       <c r="P9" t="s">
+        <v>3359</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>3353</v>
+      </c>
+      <c r="R9" t="s">
         <v>3354</v>
       </c>
-      <c r="Q9" t="s">
-        <v>3348</v>
-      </c>
-      <c r="R9" t="s">
-        <v>3349</v>
-      </c>
       <c r="S9" t="s">
-        <v>3355</v>
+        <v>3360</v>
       </c>
       <c r="T9" t="s">
         <v>86</v>
@@ -22409,16 +23334,16 @@
         <v>3189</v>
       </c>
       <c r="P10" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q10" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R10" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S10" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T10" t="s">
         <v>86</v>
@@ -22477,16 +23402,16 @@
         <v>3189</v>
       </c>
       <c r="P11" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="Q11" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="R11" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S11" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T11" t="s">
         <v>86</v>
@@ -22545,22 +23470,22 @@
         <v>3189</v>
       </c>
       <c r="P12" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q12" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R12" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S12" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T12" t="s">
         <v>86</v>
       </c>
       <c r="U12" t="s">
-        <v>3356</v>
+        <v>3361</v>
       </c>
       <c r="V12" t="s">
         <v>71</v>
@@ -22613,16 +23538,16 @@
         <v>3189</v>
       </c>
       <c r="P13" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q13" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R13" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S13" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T13" t="s">
         <v>86</v>
@@ -22681,16 +23606,16 @@
         <v>3189</v>
       </c>
       <c r="P14" t="s">
+        <v>3359</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3353</v>
+      </c>
+      <c r="R14" t="s">
         <v>3354</v>
       </c>
-      <c r="Q14" t="s">
-        <v>3348</v>
-      </c>
-      <c r="R14" t="s">
-        <v>3349</v>
-      </c>
       <c r="S14" t="s">
-        <v>3355</v>
+        <v>3360</v>
       </c>
       <c r="T14" t="s">
         <v>86</v>
@@ -22749,16 +23674,16 @@
         <v>3189</v>
       </c>
       <c r="P15" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q15" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R15" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S15" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T15" t="s">
         <v>86</v>
@@ -22817,16 +23742,16 @@
         <v>3189</v>
       </c>
       <c r="P16" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q16" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R16" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S16" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T16" t="s">
         <v>86</v>
@@ -22885,16 +23810,16 @@
         <v>3189</v>
       </c>
       <c r="P17" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q17" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R17" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S17" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T17" t="s">
         <v>86</v>
@@ -22953,16 +23878,16 @@
         <v>3189</v>
       </c>
       <c r="P18" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q18" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R18" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S18" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T18" t="s">
         <v>86</v>
@@ -23021,16 +23946,16 @@
         <v>3189</v>
       </c>
       <c r="P19" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q19" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R19" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S19" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T19" t="s">
         <v>86</v>
@@ -23089,16 +24014,16 @@
         <v>3189</v>
       </c>
       <c r="P20" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="Q20" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="R20" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S20" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T20" t="s">
         <v>86</v>
@@ -23157,16 +24082,16 @@
         <v>3189</v>
       </c>
       <c r="P21" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q21" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R21" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S21" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T21" t="s">
         <v>86</v>
@@ -23225,16 +24150,16 @@
         <v>3189</v>
       </c>
       <c r="P22" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q22" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R22" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S22" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T22" t="s">
         <v>86</v>
@@ -23293,16 +24218,16 @@
         <v>3189</v>
       </c>
       <c r="P23" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q23" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R23" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S23" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T23" t="s">
         <v>86</v>
@@ -23361,16 +24286,16 @@
         <v>3189</v>
       </c>
       <c r="P24" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q24" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R24" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S24" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T24" t="s">
         <v>86</v>
@@ -23429,16 +24354,16 @@
         <v>3189</v>
       </c>
       <c r="P25" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q25" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R25" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S25" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T25" t="s">
         <v>86</v>
@@ -23497,16 +24422,16 @@
         <v>3189</v>
       </c>
       <c r="P26" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q26" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R26" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S26" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T26" t="s">
         <v>86</v>
@@ -23565,16 +24490,16 @@
         <v>3189</v>
       </c>
       <c r="P27" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q27" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R27" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S27" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T27" t="s">
         <v>86</v>
@@ -23633,16 +24558,16 @@
         <v>3189</v>
       </c>
       <c r="P28" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="Q28" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="R28" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S28" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T28" t="s">
         <v>86</v>
@@ -23701,16 +24626,16 @@
         <v>3189</v>
       </c>
       <c r="P29" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q29" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R29" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S29" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T29" t="s">
         <v>86</v>
@@ -23769,16 +24694,16 @@
         <v>3189</v>
       </c>
       <c r="P30" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="Q30" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="R30" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S30" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T30" t="s">
         <v>86</v>
@@ -23837,16 +24762,16 @@
         <v>3189</v>
       </c>
       <c r="P31" t="s">
+        <v>3359</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>3357</v>
+      </c>
+      <c r="R31" t="s">
         <v>3354</v>
       </c>
-      <c r="Q31" t="s">
-        <v>3352</v>
-      </c>
-      <c r="R31" t="s">
-        <v>3349</v>
-      </c>
       <c r="S31" t="s">
-        <v>3355</v>
+        <v>3360</v>
       </c>
       <c r="T31" t="s">
         <v>86</v>
@@ -23905,16 +24830,16 @@
         <v>3189</v>
       </c>
       <c r="P32" t="s">
+        <v>3359</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>3353</v>
+      </c>
+      <c r="R32" t="s">
         <v>3354</v>
       </c>
-      <c r="Q32" t="s">
-        <v>3348</v>
-      </c>
-      <c r="R32" t="s">
-        <v>3349</v>
-      </c>
       <c r="S32" t="s">
-        <v>3355</v>
+        <v>3360</v>
       </c>
       <c r="T32" t="s">
         <v>86</v>
@@ -23973,16 +24898,16 @@
         <v>3189</v>
       </c>
       <c r="P33" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q33" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R33" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S33" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T33" t="s">
         <v>86</v>
@@ -24041,16 +24966,16 @@
         <v>3189</v>
       </c>
       <c r="P34" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="Q34" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="R34" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S34" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T34" t="s">
         <v>86</v>
@@ -24109,16 +25034,16 @@
         <v>3189</v>
       </c>
       <c r="P35" t="s">
+        <v>3359</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>3353</v>
+      </c>
+      <c r="R35" t="s">
         <v>3354</v>
       </c>
-      <c r="Q35" t="s">
-        <v>3348</v>
-      </c>
-      <c r="R35" t="s">
-        <v>3349</v>
-      </c>
       <c r="S35" t="s">
-        <v>3355</v>
+        <v>3360</v>
       </c>
       <c r="T35" t="s">
         <v>86</v>
@@ -24177,16 +25102,16 @@
         <v>3189</v>
       </c>
       <c r="P36" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q36" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R36" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S36" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T36" t="s">
         <v>86</v>
@@ -24245,16 +25170,16 @@
         <v>3189</v>
       </c>
       <c r="P37" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="Q37" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R37" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S37" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T37" t="s">
         <v>86</v>
@@ -24313,16 +25238,16 @@
         <v>3189</v>
       </c>
       <c r="P38" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q38" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R38" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S38" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T38" t="s">
         <v>86</v>
@@ -24381,22 +25306,22 @@
         <v>3189</v>
       </c>
       <c r="P39" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="Q39" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="R39" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S39" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T39" t="s">
         <v>86</v>
       </c>
       <c r="U39" t="s">
-        <v>3339</v>
+        <v>3344</v>
       </c>
       <c r="V39" t="s">
         <v>71</v>
@@ -24449,16 +25374,16 @@
         <v>3189</v>
       </c>
       <c r="P40" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q40" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R40" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S40" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T40" t="s">
         <v>86</v>
@@ -24517,16 +25442,16 @@
         <v>3189</v>
       </c>
       <c r="P41" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q41" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R41" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S41" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T41" t="s">
         <v>86</v>
@@ -24585,16 +25510,16 @@
         <v>3189</v>
       </c>
       <c r="P42" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
       <c r="Q42" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="R42" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S42" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="T42" t="s">
         <v>86</v>
@@ -24653,22 +25578,22 @@
         <v>3189</v>
       </c>
       <c r="P43" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="Q43" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="R43" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="S43" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="T43" t="s">
         <v>86</v>
       </c>
       <c r="U43" t="s">
-        <v>3357</v>
+        <v>3362</v>
       </c>
       <c r="V43" t="s">
         <v>71</v>
@@ -24707,10 +25632,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3358</v>
+        <v>3363</v>
       </c>
       <c r="H1" t="s">
-        <v>3359</v>
+        <v>3364</v>
       </c>
       <c r="I1" t="s">
         <v>3183</v>
@@ -24719,40 +25644,40 @@
         <v>3283</v>
       </c>
       <c r="K1" t="s">
-        <v>3360</v>
+        <v>3365</v>
       </c>
       <c r="L1" t="s">
-        <v>3361</v>
+        <v>3366</v>
       </c>
       <c r="M1" t="s">
-        <v>3362</v>
+        <v>3367</v>
       </c>
       <c r="N1" t="s">
-        <v>3363</v>
+        <v>3368</v>
       </c>
       <c r="O1" t="s">
-        <v>3364</v>
+        <v>3369</v>
       </c>
       <c r="P1" t="s">
-        <v>3365</v>
+        <v>3370</v>
       </c>
       <c r="Q1" t="s">
-        <v>3366</v>
+        <v>3371</v>
       </c>
       <c r="R1" t="s">
-        <v>3367</v>
+        <v>3372</v>
       </c>
       <c r="S1" t="s">
-        <v>3368</v>
+        <v>3373</v>
       </c>
       <c r="T1" t="s">
         <v>1484</v>
       </c>
       <c r="U1" t="s">
-        <v>3369</v>
+        <v>3374</v>
       </c>
       <c r="V1" t="s">
-        <v>3370</v>
+        <v>3375</v>
       </c>
       <c r="W1" t="s">
         <v>1485</v>
@@ -24761,19 +25686,19 @@
         <v>1489</v>
       </c>
       <c r="Y1" t="s">
-        <v>3371</v>
+        <v>3376</v>
       </c>
       <c r="Z1" t="s">
-        <v>3372</v>
+        <v>3377</v>
       </c>
       <c r="AA1" t="s">
-        <v>3373</v>
+        <v>3378</v>
       </c>
       <c r="AB1" t="s">
         <v>3285</v>
       </c>
       <c r="AC1" t="s">
-        <v>3374</v>
+        <v>3379</v>
       </c>
     </row>
   </sheetData>
@@ -24809,10 +25734,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3358</v>
+        <v>3363</v>
       </c>
       <c r="H1" t="s">
-        <v>3359</v>
+        <v>3364</v>
       </c>
       <c r="I1" t="s">
         <v>3183</v>
@@ -24821,40 +25746,40 @@
         <v>3283</v>
       </c>
       <c r="K1" t="s">
-        <v>3360</v>
+        <v>3365</v>
       </c>
       <c r="L1" t="s">
-        <v>3361</v>
+        <v>3366</v>
       </c>
       <c r="M1" t="s">
-        <v>3362</v>
+        <v>3367</v>
       </c>
       <c r="N1" t="s">
-        <v>3363</v>
+        <v>3368</v>
       </c>
       <c r="O1" t="s">
-        <v>3364</v>
+        <v>3369</v>
       </c>
       <c r="P1" t="s">
-        <v>3365</v>
+        <v>3370</v>
       </c>
       <c r="Q1" t="s">
-        <v>3366</v>
+        <v>3371</v>
       </c>
       <c r="R1" t="s">
-        <v>3367</v>
+        <v>3372</v>
       </c>
       <c r="S1" t="s">
-        <v>3368</v>
+        <v>3373</v>
       </c>
       <c r="T1" t="s">
         <v>1484</v>
       </c>
       <c r="U1" t="s">
-        <v>3369</v>
+        <v>3374</v>
       </c>
       <c r="V1" t="s">
-        <v>3370</v>
+        <v>3375</v>
       </c>
       <c r="W1" t="s">
         <v>1485</v>
@@ -24863,43 +25788,43 @@
         <v>1489</v>
       </c>
       <c r="Y1" t="s">
-        <v>3371</v>
+        <v>3376</v>
       </c>
       <c r="Z1" t="s">
-        <v>3372</v>
+        <v>3377</v>
       </c>
       <c r="AA1" t="s">
-        <v>3375</v>
+        <v>3380</v>
       </c>
       <c r="AB1" t="s">
-        <v>3376</v>
+        <v>3381</v>
       </c>
       <c r="AC1" t="s">
-        <v>3377</v>
+        <v>3382</v>
       </c>
       <c r="AD1" t="s">
-        <v>3378</v>
+        <v>3383</v>
       </c>
       <c r="AE1" t="s">
-        <v>3379</v>
+        <v>3384</v>
       </c>
       <c r="AF1" t="s">
-        <v>3380</v>
+        <v>3385</v>
       </c>
       <c r="AG1" t="s">
-        <v>3381</v>
+        <v>3386</v>
       </c>
       <c r="AH1" t="s">
-        <v>3382</v>
+        <v>3387</v>
       </c>
       <c r="AI1" t="s">
-        <v>3383</v>
+        <v>3388</v>
       </c>
       <c r="AJ1" t="s">
         <v>3285</v>
       </c>
       <c r="AK1" t="s">
-        <v>3384</v>
+        <v>3389</v>
       </c>
     </row>
   </sheetData>
@@ -24935,10 +25860,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3358</v>
+        <v>3363</v>
       </c>
       <c r="H1" t="s">
-        <v>3359</v>
+        <v>3364</v>
       </c>
       <c r="I1" t="s">
         <v>3183</v>
@@ -24947,40 +25872,40 @@
         <v>3283</v>
       </c>
       <c r="K1" t="s">
-        <v>3360</v>
+        <v>3365</v>
       </c>
       <c r="L1" t="s">
-        <v>3361</v>
+        <v>3366</v>
       </c>
       <c r="M1" t="s">
-        <v>3362</v>
+        <v>3367</v>
       </c>
       <c r="N1" t="s">
-        <v>3363</v>
+        <v>3368</v>
       </c>
       <c r="O1" t="s">
-        <v>3364</v>
+        <v>3369</v>
       </c>
       <c r="P1" t="s">
-        <v>3365</v>
+        <v>3370</v>
       </c>
       <c r="Q1" t="s">
-        <v>3366</v>
+        <v>3371</v>
       </c>
       <c r="R1" t="s">
-        <v>3367</v>
+        <v>3372</v>
       </c>
       <c r="S1" t="s">
-        <v>3368</v>
+        <v>3373</v>
       </c>
       <c r="T1" t="s">
         <v>1484</v>
       </c>
       <c r="U1" t="s">
-        <v>3369</v>
+        <v>3374</v>
       </c>
       <c r="V1" t="s">
-        <v>3370</v>
+        <v>3375</v>
       </c>
       <c r="W1" t="s">
         <v>1485</v>
@@ -24989,25 +25914,25 @@
         <v>1489</v>
       </c>
       <c r="Y1" t="s">
-        <v>3371</v>
+        <v>3376</v>
       </c>
       <c r="Z1" t="s">
-        <v>3372</v>
+        <v>3377</v>
       </c>
       <c r="AA1" t="s">
-        <v>3342</v>
+        <v>3347</v>
       </c>
       <c r="AB1" t="s">
-        <v>3385</v>
+        <v>3390</v>
       </c>
       <c r="AC1" t="s">
-        <v>3340</v>
+        <v>3345</v>
       </c>
       <c r="AD1" t="s">
-        <v>3386</v>
+        <v>3391</v>
       </c>
       <c r="AE1" t="s">
-        <v>3384</v>
+        <v>3389</v>
       </c>
     </row>
   </sheetData>
@@ -25043,37 +25968,37 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3387</v>
+        <v>3392</v>
       </c>
       <c r="H1" t="s">
-        <v>3388</v>
+        <v>3393</v>
       </c>
       <c r="I1" t="s">
-        <v>3389</v>
+        <v>3394</v>
       </c>
       <c r="J1" t="s">
-        <v>3390</v>
+        <v>3395</v>
       </c>
       <c r="K1" t="s">
-        <v>3391</v>
+        <v>3396</v>
       </c>
       <c r="L1" t="s">
-        <v>3392</v>
+        <v>3397</v>
       </c>
       <c r="M1" t="s">
-        <v>3393</v>
+        <v>3398</v>
       </c>
       <c r="N1" t="s">
-        <v>3394</v>
+        <v>3399</v>
       </c>
       <c r="O1" t="s">
-        <v>3395</v>
+        <v>3400</v>
       </c>
       <c r="P1" t="s">
-        <v>3396</v>
+        <v>3401</v>
       </c>
       <c r="Q1" t="s">
-        <v>3397</v>
+        <v>3402</v>
       </c>
       <c r="R1" t="s">
         <v>3183</v>
@@ -25082,16 +26007,16 @@
         <v>3283</v>
       </c>
       <c r="T1" t="s">
-        <v>3398</v>
+        <v>3403</v>
       </c>
       <c r="U1" t="s">
-        <v>3399</v>
+        <v>3404</v>
       </c>
       <c r="V1" t="s">
-        <v>3400</v>
+        <v>3405</v>
       </c>
       <c r="W1" t="s">
-        <v>3401</v>
+        <v>3406</v>
       </c>
     </row>
   </sheetData>
@@ -25127,28 +26052,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3387</v>
+        <v>3392</v>
       </c>
       <c r="H1" t="s">
-        <v>3388</v>
+        <v>3393</v>
       </c>
       <c r="I1" t="s">
-        <v>3389</v>
+        <v>3394</v>
       </c>
       <c r="J1" t="s">
-        <v>3390</v>
+        <v>3395</v>
       </c>
       <c r="K1" t="s">
-        <v>3391</v>
+        <v>3396</v>
       </c>
       <c r="L1" t="s">
-        <v>3392</v>
+        <v>3397</v>
       </c>
       <c r="M1" t="s">
-        <v>3393</v>
+        <v>3398</v>
       </c>
       <c r="N1" t="s">
-        <v>3394</v>
+        <v>3399</v>
       </c>
       <c r="O1" t="s">
         <v>3183</v>
@@ -25157,22 +26082,22 @@
         <v>3283</v>
       </c>
       <c r="Q1" t="s">
-        <v>3398</v>
+        <v>3403</v>
       </c>
       <c r="R1" t="s">
-        <v>3402</v>
+        <v>3407</v>
       </c>
       <c r="S1" t="s">
-        <v>3362</v>
+        <v>3367</v>
       </c>
       <c r="T1" t="s">
-        <v>3403</v>
+        <v>3408</v>
       </c>
       <c r="U1" t="s">
-        <v>3404</v>
+        <v>3409</v>
       </c>
       <c r="V1" t="s">
-        <v>3401</v>
+        <v>3406</v>
       </c>
     </row>
   </sheetData>
@@ -25208,34 +26133,34 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3387</v>
+        <v>3392</v>
       </c>
       <c r="H1" t="s">
-        <v>3388</v>
+        <v>3393</v>
       </c>
       <c r="I1" t="s">
-        <v>3389</v>
+        <v>3394</v>
       </c>
       <c r="J1" t="s">
-        <v>3390</v>
+        <v>3395</v>
       </c>
       <c r="K1" t="s">
-        <v>3391</v>
+        <v>3396</v>
       </c>
       <c r="L1" t="s">
-        <v>3392</v>
+        <v>3397</v>
       </c>
       <c r="M1" t="s">
-        <v>3393</v>
+        <v>3398</v>
       </c>
       <c r="N1" t="s">
-        <v>3394</v>
+        <v>3399</v>
       </c>
       <c r="O1" t="s">
-        <v>3405</v>
+        <v>3410</v>
       </c>
       <c r="P1" t="s">
-        <v>3406</v>
+        <v>3411</v>
       </c>
       <c r="Q1" t="s">
         <v>3183</v>
@@ -25244,16 +26169,16 @@
         <v>3283</v>
       </c>
       <c r="S1" t="s">
-        <v>3398</v>
+        <v>3403</v>
       </c>
       <c r="T1" t="s">
-        <v>3399</v>
+        <v>3404</v>
       </c>
       <c r="U1" t="s">
-        <v>3400</v>
+        <v>3405</v>
       </c>
       <c r="V1" t="s">
-        <v>3401</v>
+        <v>3406</v>
       </c>
     </row>
   </sheetData>
@@ -25289,31 +26214,31 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3407</v>
+        <v>3412</v>
       </c>
       <c r="H1" t="s">
         <v>3283</v>
       </c>
       <c r="I1" t="s">
-        <v>3408</v>
+        <v>3413</v>
       </c>
       <c r="J1" t="s">
         <v>3183</v>
       </c>
       <c r="K1" t="s">
-        <v>3409</v>
+        <v>3414</v>
       </c>
       <c r="L1" t="s">
-        <v>3410</v>
+        <v>3415</v>
       </c>
       <c r="M1" t="s">
-        <v>3411</v>
+        <v>3416</v>
       </c>
       <c r="N1" t="s">
         <v>3277</v>
       </c>
       <c r="O1" t="s">
-        <v>3412</v>
+        <v>3417</v>
       </c>
       <c r="P1" t="s">
         <v>3279</v>
@@ -25325,7 +26250,7 @@
         <v>3281</v>
       </c>
       <c r="S1" t="s">
-        <v>3413</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -26895,40 +27820,40 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3407</v>
+        <v>3412</v>
       </c>
       <c r="H1" t="s">
         <v>3283</v>
       </c>
       <c r="I1" t="s">
-        <v>3408</v>
+        <v>3413</v>
       </c>
       <c r="J1" t="s">
         <v>3183</v>
       </c>
       <c r="K1" t="s">
-        <v>3409</v>
+        <v>3414</v>
       </c>
       <c r="L1" t="s">
-        <v>3410</v>
+        <v>3415</v>
       </c>
       <c r="M1" t="s">
-        <v>3414</v>
+        <v>3419</v>
       </c>
       <c r="N1" t="s">
-        <v>3389</v>
+        <v>3394</v>
       </c>
       <c r="O1" t="s">
-        <v>3415</v>
+        <v>3420</v>
       </c>
       <c r="P1" t="s">
-        <v>3416</v>
+        <v>3421</v>
       </c>
       <c r="Q1" t="s">
-        <v>3417</v>
+        <v>3422</v>
       </c>
       <c r="R1" t="s">
-        <v>3418</v>
+        <v>3423</v>
       </c>
     </row>
   </sheetData>
@@ -46337,43 +47262,43 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3407</v>
+        <v>3412</v>
       </c>
       <c r="H1" t="s">
         <v>3283</v>
       </c>
       <c r="I1" t="s">
-        <v>3408</v>
+        <v>3413</v>
       </c>
       <c r="J1" t="s">
         <v>3183</v>
       </c>
       <c r="K1" t="s">
-        <v>3409</v>
+        <v>3414</v>
       </c>
       <c r="L1" t="s">
-        <v>3410</v>
+        <v>3415</v>
       </c>
       <c r="M1" t="s">
-        <v>3358</v>
+        <v>3363</v>
       </c>
       <c r="N1" t="s">
-        <v>3419</v>
+        <v>3424</v>
       </c>
       <c r="O1" t="s">
-        <v>3420</v>
+        <v>3425</v>
       </c>
       <c r="P1" t="s">
-        <v>3421</v>
+        <v>3426</v>
       </c>
       <c r="Q1" t="s">
-        <v>3422</v>
+        <v>3427</v>
       </c>
       <c r="R1" t="s">
-        <v>3423</v>
+        <v>3428</v>
       </c>
       <c r="S1" t="s">
-        <v>3424</v>
+        <v>3429</v>
       </c>
     </row>
   </sheetData>
@@ -102486,7 +103411,7 @@
         <v>3189</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -102963,7 +103888,7 @@
         <v>3189</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q18">
         <v>3</v>
